--- a/result/BO_TransformerCNN_CS2_36_predictions.xlsx
+++ b/result/BO_TransformerCNN_CS2_36_predictions.xlsx
@@ -557,7 +557,7 @@
         <v>1.105772038995162</v>
       </c>
       <c r="C11" t="n">
-        <v>1.105772038995162</v>
+        <v>1.087120652198792</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>1.108276959302579</v>
       </c>
       <c r="C12" t="n">
-        <v>1.108276959302579</v>
+        <v>1.087208032608032</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>1.112932182255405</v>
       </c>
       <c r="C13" t="n">
-        <v>1.112932182255405</v>
+        <v>1.087240934371948</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>1.112988055371036</v>
       </c>
       <c r="C14" t="n">
-        <v>1.108721137046814</v>
+        <v>1.087267398834229</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>1.112797166746113</v>
       </c>
       <c r="C15" t="n">
-        <v>1.109608769416809</v>
+        <v>1.087090730667114</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1.112458056752362</v>
       </c>
       <c r="C16" t="n">
-        <v>1.109805822372437</v>
+        <v>1.08698832988739</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>1.112190260405911</v>
       </c>
       <c r="C17" t="n">
-        <v>1.109804511070251</v>
+        <v>1.086926579475403</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>1.112012700816156</v>
       </c>
       <c r="C18" t="n">
-        <v>1.109598755836487</v>
+        <v>1.086864829063416</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>1.108000436582179</v>
       </c>
       <c r="C19" t="n">
-        <v>1.109394907951355</v>
+        <v>1.086595296859741</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>1.107535049954546</v>
       </c>
       <c r="C20" t="n">
-        <v>1.108311891555786</v>
+        <v>1.086571931838989</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1.107138121556739</v>
       </c>
       <c r="C21" t="n">
-        <v>1.107890844345093</v>
+        <v>1.086606383323669</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>1.106752303115142</v>
       </c>
       <c r="C22" t="n">
-        <v>1.107890605926514</v>
+        <v>1.086535215377808</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>1.106477058790548</v>
       </c>
       <c r="C23" t="n">
-        <v>1.107889533042908</v>
+        <v>1.086537837982178</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>1.106304857415718</v>
       </c>
       <c r="C24" t="n">
-        <v>1.108031511306763</v>
+        <v>1.086398243904114</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>1.105836164717287</v>
       </c>
       <c r="C25" t="n">
-        <v>1.10851788520813</v>
+        <v>1.08594274520874</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>1.105457966044091</v>
       </c>
       <c r="C26" t="n">
-        <v>1.108579277992249</v>
+        <v>1.085991263389587</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>1.105138463041961</v>
       </c>
       <c r="C27" t="n">
-        <v>1.108577966690063</v>
+        <v>1.085886001586914</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>1.095704800388044</v>
       </c>
       <c r="C28" t="n">
-        <v>1.108375310897827</v>
+        <v>1.084861516952515</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>1.08910990291196</v>
       </c>
       <c r="C29" t="n">
-        <v>1.105284810066223</v>
+        <v>1.083140850067139</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>1.087908878026578</v>
       </c>
       <c r="C30" t="n">
-        <v>1.100943684577942</v>
+        <v>1.081817626953125</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1.087140464516052</v>
       </c>
       <c r="C31" t="n">
-        <v>1.098518848419189</v>
+        <v>1.080755710601807</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>1.085984676363469</v>
       </c>
       <c r="C32" t="n">
-        <v>1.097561001777649</v>
+        <v>1.079661130905151</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>1.094025916657768</v>
       </c>
       <c r="C33" t="n">
-        <v>1.096600890159607</v>
+        <v>1.079727053642273</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>1.094967453845462</v>
       </c>
       <c r="C34" t="n">
-        <v>1.101163029670715</v>
+        <v>1.079217195510864</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>1.085807278078665</v>
       </c>
       <c r="C35" t="n">
-        <v>1.101914763450623</v>
+        <v>1.07704758644104</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>1.07944334268008</v>
       </c>
       <c r="C36" t="n">
-        <v>1.095544099807739</v>
+        <v>1.074223041534424</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.079184018069209</v>
       </c>
       <c r="C37" t="n">
-        <v>1.087024450302124</v>
+        <v>1.072875022888184</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.078459123542833</v>
       </c>
       <c r="C38" t="n">
-        <v>1.083683729171753</v>
+        <v>1.072150468826294</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.078670996153079</v>
       </c>
       <c r="C39" t="n">
-        <v>1.082783460617065</v>
+        <v>1.071386218070984</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.086621006002001</v>
       </c>
       <c r="C40" t="n">
-        <v>1.08291757106781</v>
+        <v>1.072320938110352</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.0870770175067</v>
       </c>
       <c r="C41" t="n">
-        <v>1.090211629867554</v>
+        <v>1.072144031524658</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>1.077793192314377</v>
       </c>
       <c r="C42" t="n">
-        <v>1.091664671897888</v>
+        <v>1.069354176521301</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>1.076780791811387</v>
       </c>
       <c r="C43" t="n">
-        <v>1.082437872886658</v>
+        <v>1.067560076713562</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>1.076472139496926</v>
       </c>
       <c r="C44" t="n">
-        <v>1.078065395355225</v>
+        <v>1.066748261451721</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>1.071824404207881</v>
       </c>
       <c r="C45" t="n">
-        <v>1.076868772506714</v>
+        <v>1.065280914306641</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>1.071122751887246</v>
       </c>
       <c r="C46" t="n">
-        <v>1.073686361312866</v>
+        <v>1.064411520957947</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>1.079492848239731</v>
       </c>
       <c r="C47" t="n">
-        <v>1.072572588920593</v>
+        <v>1.065558433532715</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>1.080303519583967</v>
       </c>
       <c r="C48" t="n">
-        <v>1.078263759613037</v>
+        <v>1.065535187721252</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.07153112471305</v>
       </c>
       <c r="C49" t="n">
-        <v>1.079991340637207</v>
+        <v>1.062818646430969</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>1.070766619675544</v>
       </c>
       <c r="C50" t="n">
-        <v>1.073123455047607</v>
+        <v>1.060936808586121</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>1.070172188461984</v>
       </c>
       <c r="C51" t="n">
-        <v>1.070423364639282</v>
+        <v>1.059557199478149</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>1.069615116531353</v>
       </c>
       <c r="C52" t="n">
-        <v>1.069582581520081</v>
+        <v>1.059257030487061</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>1.068701603119897</v>
       </c>
       <c r="C53" t="n">
-        <v>1.069101572036743</v>
+        <v>1.058724045753479</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>1.105029274581342</v>
       </c>
       <c r="C54" t="n">
-        <v>1.069823265075684</v>
+        <v>1.066642761230469</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>1.099092958537792</v>
       </c>
       <c r="C55" t="n">
-        <v>1.106210708618164</v>
+        <v>1.069650650024414</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>1.104986568137283</v>
       </c>
       <c r="C56" t="n">
-        <v>1.106250643730164</v>
+        <v>1.073219060897827</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>1.104765661760909</v>
       </c>
       <c r="C57" t="n">
-        <v>1.108161449432373</v>
+        <v>1.075966715812683</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>1.096297634454313</v>
       </c>
       <c r="C58" t="n">
-        <v>1.108357191085815</v>
+        <v>1.077436685562134</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>1.089843588835255</v>
       </c>
       <c r="C59" t="n">
-        <v>1.104944467544556</v>
+        <v>1.077923655509949</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>1.088656095033097</v>
       </c>
       <c r="C60" t="n">
-        <v>1.099765181541443</v>
+        <v>1.079197525978088</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>1.080761069547687</v>
       </c>
       <c r="C61" t="n">
-        <v>1.097688317298889</v>
+        <v>1.078346014022827</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>1.086089236238166</v>
       </c>
       <c r="C62" t="n">
-        <v>1.092562913894653</v>
+        <v>1.078836917877197</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>1.080809581268385</v>
       </c>
       <c r="C63" t="n">
-        <v>1.094304203987122</v>
+        <v>1.076746702194214</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>1.077879957821797</v>
       </c>
       <c r="C64" t="n">
-        <v>1.09056293964386</v>
+        <v>1.074135422706604</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>1.072507443611924</v>
       </c>
       <c r="C65" t="n">
-        <v>1.084868192672729</v>
+        <v>1.070359945297241</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>1.071644855769363</v>
       </c>
       <c r="C66" t="n">
-        <v>1.077990055084229</v>
+        <v>1.067068099975586</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>1.071068178370071</v>
       </c>
       <c r="C67" t="n">
-        <v>1.074445366859436</v>
+        <v>1.064900875091553</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>1.069427286346617</v>
       </c>
       <c r="C68" t="n">
-        <v>1.072857141494751</v>
+        <v>1.062852621078491</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>1.070108430661621</v>
       </c>
       <c r="C69" t="n">
-        <v>1.070965647697449</v>
+        <v>1.061006426811218</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>1.069803950586544</v>
       </c>
       <c r="C70" t="n">
-        <v>1.070208311080933</v>
+        <v>1.059199810028076</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>1.063096813492805</v>
       </c>
       <c r="C71" t="n">
-        <v>1.069233536720276</v>
+        <v>1.055614233016968</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>1.062674613744073</v>
       </c>
       <c r="C72" t="n">
-        <v>1.065360426902771</v>
+        <v>1.053731560707092</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>1.062291273477385</v>
       </c>
       <c r="C73" t="n">
-        <v>1.063473463058472</v>
+        <v>1.052636623382568</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>1.061867920638637</v>
       </c>
       <c r="C74" t="n">
-        <v>1.06257164478302</v>
+        <v>1.051975250244141</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>1.060991049119722</v>
       </c>
       <c r="C75" t="n">
-        <v>1.062098503112793</v>
+        <v>1.051104426383972</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>1.062152265500477</v>
       </c>
       <c r="C76" t="n">
-        <v>1.061105966567993</v>
+        <v>1.050453066825867</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>1.061782560477029</v>
       </c>
       <c r="C77" t="n">
-        <v>1.061105608940125</v>
+        <v>1.049805521965027</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>1.061375687044289</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06077516078949</v>
+        <v>1.049128532409668</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>1.06109679215441</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0601407289505</v>
+        <v>1.048820972442627</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>1.060859086083581</v>
       </c>
       <c r="C80" t="n">
-        <v>1.059874415397644</v>
+        <v>1.048267483711243</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0.9434336605672825</v>
       </c>
       <c r="C81" t="n">
-        <v>1.056783199310303</v>
+        <v>1.022336959838867</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0.9430515897543453</v>
       </c>
       <c r="C82" t="n">
-        <v>1.045312404632568</v>
+        <v>1.002705693244934</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>1.059970017023836</v>
       </c>
       <c r="C83" t="n">
-        <v>1.042341828346252</v>
+        <v>1.032707929611206</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>1.059632086645374</v>
       </c>
       <c r="C84" t="n">
-        <v>1.056167125701904</v>
+        <v>1.036146521568298</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>1.0593858327377</v>
       </c>
       <c r="C85" t="n">
-        <v>1.058329701423645</v>
+        <v>1.036915063858032</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>1.059151738051096</v>
       </c>
       <c r="C86" t="n">
-        <v>1.058131456375122</v>
+        <v>1.035968899726868</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.9405944345356114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.054772853851318</v>
+        <v>1.007277727127075</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>1.058428778217192</v>
       </c>
       <c r="C88" t="n">
-        <v>1.045449018478394</v>
+        <v>1.027689456939697</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>1.058566711060737</v>
       </c>
       <c r="C89" t="n">
-        <v>1.054361343383789</v>
+        <v>1.034189939498901</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>1.05350181268986</v>
       </c>
       <c r="C90" t="n">
-        <v>1.056438207626343</v>
+        <v>1.038654923439026</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>1.053104702907109</v>
       </c>
       <c r="C91" t="n">
-        <v>1.053744077682495</v>
+        <v>1.039485335350037</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>1.052504457997995</v>
       </c>
       <c r="C92" t="n">
-        <v>1.052214741706848</v>
+        <v>1.038130640983582</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>1.044866290810998</v>
       </c>
       <c r="C93" t="n">
-        <v>1.050952076911926</v>
+        <v>1.036226987838745</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>1.044119442538547</v>
       </c>
       <c r="C94" t="n">
-        <v>1.046933531761169</v>
+        <v>1.036379814147949</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>1.043483987541923</v>
       </c>
       <c r="C95" t="n">
-        <v>1.045678615570068</v>
+        <v>1.036877751350403</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>1.051927965298877</v>
       </c>
       <c r="C96" t="n">
-        <v>1.045139908790588</v>
+        <v>1.039903283119202</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>1.051800254388349</v>
       </c>
       <c r="C97" t="n">
-        <v>1.048671245574951</v>
+        <v>1.039430260658264</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>1.051461266022864</v>
       </c>
       <c r="C98" t="n">
-        <v>1.049358129501343</v>
+        <v>1.038957715034485</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>1.058584134343584</v>
       </c>
       <c r="C99" t="n">
-        <v>1.049237251281738</v>
+        <v>1.040245413780212</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>1.059122054157851</v>
       </c>
       <c r="C100" t="n">
-        <v>1.053670048713684</v>
+        <v>1.041092276573181</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>1.052126301419289</v>
       </c>
       <c r="C101" t="n">
-        <v>1.05505633354187</v>
+        <v>1.040693640708923</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>1.0506544182769</v>
       </c>
       <c r="C102" t="n">
-        <v>1.051521062850952</v>
+        <v>1.040937185287476</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>1.05060719286684</v>
       </c>
       <c r="C103" t="n">
-        <v>1.049566507339478</v>
+        <v>1.041095614433289</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>1.050406847777942</v>
       </c>
       <c r="C104" t="n">
-        <v>1.049146771430969</v>
+        <v>1.041277408599854</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>1.044611209599017</v>
       </c>
       <c r="C105" t="n">
-        <v>1.049002408981323</v>
+        <v>1.04037606716156</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>1.052301890342092</v>
       </c>
       <c r="C106" t="n">
-        <v>1.046878099441528</v>
+        <v>1.040856003761292</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>1.057024882819972</v>
       </c>
       <c r="C107" t="n">
-        <v>1.049503803253174</v>
+        <v>1.041641712188721</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>0.9419005087546626</v>
       </c>
       <c r="C108" t="n">
-        <v>1.050177335739136</v>
+        <v>1.016554474830627</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>1.043673606659353</v>
       </c>
       <c r="C109" t="n">
-        <v>1.042246103286743</v>
+        <v>1.029915571212769</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>1.043659027558896</v>
       </c>
       <c r="C110" t="n">
-        <v>1.042923212051392</v>
+        <v>1.0317542552948</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>1.043535744078423</v>
       </c>
       <c r="C111" t="n">
-        <v>1.043604373931885</v>
+        <v>1.032257676124573</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>1.042224459927324</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04352855682373</v>
+        <v>1.031294703483582</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>1.043837658470471</v>
       </c>
       <c r="C113" t="n">
-        <v>1.043193221092224</v>
+        <v>1.030383825302124</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>1.050558807075727</v>
       </c>
       <c r="C114" t="n">
-        <v>1.043335199356079</v>
+        <v>1.031769633293152</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>0.939579020294354</v>
       </c>
       <c r="C115" t="n">
-        <v>1.043723940849304</v>
+        <v>1.009158968925476</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>1.041821377823793</v>
       </c>
       <c r="C116" t="n">
-        <v>1.036145925521851</v>
+        <v>1.02405047416687</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>1.0412617192359</v>
       </c>
       <c r="C117" t="n">
-        <v>1.039441585540771</v>
+        <v>1.027884244918823</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>1.041318608263647</v>
       </c>
       <c r="C118" t="n">
-        <v>1.040770411491394</v>
+        <v>1.02872633934021</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>1.035901031306012</v>
       </c>
       <c r="C119" t="n">
-        <v>1.040475249290466</v>
+        <v>1.027261853218079</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>1.034837841823345</v>
       </c>
       <c r="C120" t="n">
-        <v>1.038057923316956</v>
+        <v>1.025543808937073</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>1.043636438274966</v>
       </c>
       <c r="C121" t="n">
-        <v>1.036965489387512</v>
+        <v>1.026887059211731</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>1.048171702030433</v>
       </c>
       <c r="C122" t="n">
-        <v>1.040690541267395</v>
+        <v>1.029888391494751</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>1.04938466456741</v>
       </c>
       <c r="C123" t="n">
-        <v>1.044227480888367</v>
+        <v>1.032296538352966</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>1.049987628232569</v>
       </c>
       <c r="C124" t="n">
-        <v>1.045754432678223</v>
+        <v>1.034793019294739</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>1.050392177536989</v>
       </c>
       <c r="C125" t="n">
-        <v>1.046448111534119</v>
+        <v>1.035568714141846</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>1.050681232003591</v>
       </c>
       <c r="C126" t="n">
-        <v>1.046868443489075</v>
+        <v>1.036511540412903</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>1.050932192104441</v>
       </c>
       <c r="C127" t="n">
-        <v>1.047411561012268</v>
+        <v>1.037438035011292</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>1.051386377712797</v>
       </c>
       <c r="C128" t="n">
-        <v>1.047975063323975</v>
+        <v>1.038474202156067</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>1.051434827676872</v>
       </c>
       <c r="C129" t="n">
-        <v>1.048670053482056</v>
+        <v>1.039262413978577</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>1.051543100617482</v>
       </c>
       <c r="C130" t="n">
-        <v>1.04887592792511</v>
+        <v>1.039944171905518</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>1.05169289923</v>
       </c>
       <c r="C131" t="n">
-        <v>1.04908299446106</v>
+        <v>1.040013790130615</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>1.051770407363809</v>
       </c>
       <c r="C132" t="n">
-        <v>1.049298644065857</v>
+        <v>1.040009617805481</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>1.051830805947132</v>
       </c>
       <c r="C133" t="n">
-        <v>1.049501419067383</v>
+        <v>1.040575385093689</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>1.051924230797901</v>
       </c>
       <c r="C134" t="n">
-        <v>1.049565196037292</v>
+        <v>1.040569067001343</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>1.051914610006206</v>
       </c>
       <c r="C135" t="n">
-        <v>1.049634575843811</v>
+        <v>1.040631055831909</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>1.051910381650793</v>
       </c>
       <c r="C136" t="n">
-        <v>1.049776673316956</v>
+        <v>1.040653347969055</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>1.04408076857613</v>
       </c>
       <c r="C137" t="n">
-        <v>1.049633383750916</v>
+        <v>1.038902878761292</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>1.040309424775073</v>
       </c>
       <c r="C138" t="n">
-        <v>1.045813083648682</v>
+        <v>1.037476539611816</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>1.035560456197528</v>
       </c>
       <c r="C139" t="n">
-        <v>1.042695283889771</v>
+        <v>1.035581350326538</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>1.035202079350836</v>
       </c>
       <c r="C140" t="n">
-        <v>1.040150165557861</v>
+        <v>1.034024477005005</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>1.034049130566912</v>
       </c>
       <c r="C141" t="n">
-        <v>1.038892984390259</v>
+        <v>1.032594919204712</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>1.042231188752761</v>
       </c>
       <c r="C142" t="n">
-        <v>1.037933230400085</v>
+        <v>1.03283166885376</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>1.043792144943735</v>
       </c>
       <c r="C143" t="n">
-        <v>1.040922045707703</v>
+        <v>1.032484292984009</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>1.042645261050931</v>
       </c>
       <c r="C144" t="n">
-        <v>1.041811227798462</v>
+        <v>1.031552672386169</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>1.033361488420967</v>
       </c>
       <c r="C145" t="n">
-        <v>1.041041374206543</v>
+        <v>1.029186964035034</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>1.042113907376192</v>
       </c>
       <c r="C146" t="n">
-        <v>1.036610841751099</v>
+        <v>1.030228018760681</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>1.042843844309829</v>
       </c>
       <c r="C147" t="n">
-        <v>1.039234042167664</v>
+        <v>1.031221985816956</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>1.050108002409564</v>
       </c>
       <c r="C148" t="n">
-        <v>1.041116952896118</v>
+        <v>1.033514499664307</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>1.050423460396968</v>
       </c>
       <c r="C149" t="n">
-        <v>1.045485973358154</v>
+        <v>1.034877181053162</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>1.03538486762977</v>
       </c>
       <c r="C150" t="n">
-        <v>1.046433329582214</v>
+        <v>1.03228497505188</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>1.035330162164918</v>
       </c>
       <c r="C151" t="n">
-        <v>1.040005803108215</v>
+        <v>1.031362295150757</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>1.035544480220052</v>
       </c>
       <c r="C152" t="n">
-        <v>1.037098169326782</v>
+        <v>1.030835866928101</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>1.034915984240752</v>
       </c>
       <c r="C153" t="n">
-        <v>1.036738038063049</v>
+        <v>1.030742168426514</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>1.034687392958086</v>
       </c>
       <c r="C154" t="n">
-        <v>1.036956191062927</v>
+        <v>1.030478358268738</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>1.043116502742801</v>
       </c>
       <c r="C155" t="n">
-        <v>1.037030458450317</v>
+        <v>1.03147554397583</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>1.043865633590727</v>
       </c>
       <c r="C156" t="n">
-        <v>1.040492653846741</v>
+        <v>1.031128406524658</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>1.034589481918348</v>
       </c>
       <c r="C157" t="n">
-        <v>1.041038870811462</v>
+        <v>1.028960585594177</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>1.033646929261734</v>
       </c>
       <c r="C158" t="n">
-        <v>1.036954998970032</v>
+        <v>1.027789711952209</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>1.03355198577949</v>
       </c>
       <c r="C159" t="n">
-        <v>1.03480589389801</v>
+        <v>1.027578473091125</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>1.033394910850061</v>
       </c>
       <c r="C160" t="n">
-        <v>1.034384250640869</v>
+        <v>1.02773916721344</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>1.032235073444571</v>
       </c>
       <c r="C161" t="n">
-        <v>1.034375309944153</v>
+        <v>1.027401924133301</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>1.04105685518293</v>
       </c>
       <c r="C162" t="n">
-        <v>1.034185528755188</v>
+        <v>1.028823137283325</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>1.041988315359985</v>
       </c>
       <c r="C163" t="n">
-        <v>1.038129925727844</v>
+        <v>1.029009222984314</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>1.033577349013638</v>
       </c>
       <c r="C164" t="n">
-        <v>1.039371132850647</v>
+        <v>1.027520179748535</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>1.032070208149797</v>
       </c>
       <c r="C165" t="n">
-        <v>1.035492897033691</v>
+        <v>1.026599764823914</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>1.032394974593541</v>
       </c>
       <c r="C166" t="n">
-        <v>1.033414363861084</v>
+        <v>1.026133418083191</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>1.032039014107495</v>
       </c>
       <c r="C167" t="n">
-        <v>1.03299343585968</v>
+        <v>1.026258826255798</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>1.02616078167008</v>
       </c>
       <c r="C168" t="n">
-        <v>1.032847881317139</v>
+        <v>1.025258302688599</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>1.034831456767294</v>
       </c>
       <c r="C169" t="n">
-        <v>1.030931949615479</v>
+        <v>1.02586042881012</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>1.040359079264072</v>
       </c>
       <c r="C170" t="n">
-        <v>1.03370201587677</v>
+        <v>1.026947617530823</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>1.040840584700911</v>
       </c>
       <c r="C171" t="n">
-        <v>1.037234663963318</v>
+        <v>1.027531862258911</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>1.041044075382016</v>
       </c>
       <c r="C172" t="n">
-        <v>1.038402795791626</v>
+        <v>1.02782154083252</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>1.041315897426112</v>
       </c>
       <c r="C173" t="n">
-        <v>1.038760542869568</v>
+        <v>1.028424024581909</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>1.041544130696955</v>
       </c>
       <c r="C174" t="n">
-        <v>1.039025902748108</v>
+        <v>1.029369950294495</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>1.041726597735914</v>
       </c>
       <c r="C175" t="n">
-        <v>1.03944730758667</v>
+        <v>1.030298113822937</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>1.041763060294128</v>
       </c>
       <c r="C176" t="n">
-        <v>1.039928555488586</v>
+        <v>1.031272530555725</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>1.041721958279784</v>
       </c>
       <c r="C177" t="n">
-        <v>1.040348172187805</v>
+        <v>1.031977653503418</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>1.041701987994639</v>
       </c>
       <c r="C178" t="n">
-        <v>1.040348172187805</v>
+        <v>1.032427549362183</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>1.041711136180189</v>
       </c>
       <c r="C179" t="n">
-        <v>1.040411949157715</v>
+        <v>1.032426476478577</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>1.041771769639956</v>
       </c>
       <c r="C180" t="n">
-        <v>1.040555238723755</v>
+        <v>1.032420992851257</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>1.041873107701731</v>
       </c>
       <c r="C181" t="n">
-        <v>1.040554046630859</v>
+        <v>1.032442808151245</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>1.041930744729924</v>
       </c>
       <c r="C182" t="n">
-        <v>1.040770888328552</v>
+        <v>1.032515645027161</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>1.042503406994973</v>
       </c>
       <c r="C183" t="n">
-        <v>1.040770888328552</v>
+        <v>1.032697319984436</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>1.042604123313515</v>
       </c>
       <c r="C184" t="n">
-        <v>1.041044950485229</v>
+        <v>1.032847881317139</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>1.032994120971824</v>
       </c>
       <c r="C185" t="n">
-        <v>1.041041374206543</v>
+        <v>1.03078019618988</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>1.031911039461756</v>
       </c>
       <c r="C186" t="n">
-        <v>1.036956191062927</v>
+        <v>1.029471516609192</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>1.031738694201936</v>
       </c>
       <c r="C187" t="n">
-        <v>1.034736633300781</v>
+        <v>1.028518915176392</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>1.03116481806679</v>
       </c>
       <c r="C188" t="n">
-        <v>1.03404176235199</v>
+        <v>1.027856469154358</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>1.025073583938431</v>
       </c>
       <c r="C189" t="n">
-        <v>1.033342242240906</v>
+        <v>1.025851249694824</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>1.03373119072703</v>
       </c>
       <c r="C190" t="n">
-        <v>1.030933141708374</v>
+        <v>1.025839686393738</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>1.034672312272573</v>
       </c>
       <c r="C191" t="n">
-        <v>1.033064365386963</v>
+        <v>1.025295495986938</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>1.031412423105986</v>
       </c>
       <c r="C192" t="n">
-        <v>1.033686995506287</v>
+        <v>1.024369597434998</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>1.024670821828463</v>
       </c>
       <c r="C193" t="n">
-        <v>1.032018661499023</v>
+        <v>1.022634267807007</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>1.02499376068489</v>
       </c>
       <c r="C194" t="n">
-        <v>1.028698682785034</v>
+        <v>1.021700382232666</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>1.026771323585631</v>
       </c>
       <c r="C195" t="n">
-        <v>1.027449131011963</v>
+        <v>1.021453619003296</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>1.03509276004538</v>
       </c>
       <c r="C196" t="n">
-        <v>1.02828848361969</v>
+        <v>1.023129463195801</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>1.040267924605692</v>
       </c>
       <c r="C197" t="n">
-        <v>1.0327969789505</v>
+        <v>1.024761199951172</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>1.033014748247016</v>
       </c>
       <c r="C198" t="n">
-        <v>1.036669373512268</v>
+        <v>1.024130582809448</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>1.026158098995881</v>
       </c>
       <c r="C199" t="n">
-        <v>1.033469676971436</v>
+        <v>1.022538423538208</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>1.031508874412856</v>
       </c>
       <c r="C200" t="n">
-        <v>1.029536724090576</v>
+        <v>1.022815942764282</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>1.026575233726248</v>
       </c>
       <c r="C201" t="n">
-        <v>1.030564546585083</v>
+        <v>1.022601008415222</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>1.031764427771843</v>
       </c>
       <c r="C202" t="n">
-        <v>1.029536724090576</v>
+        <v>1.023869514465332</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>1.033741008373327</v>
       </c>
       <c r="C203" t="n">
-        <v>1.031469941139221</v>
+        <v>1.024343371391296</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>1.034389469733064</v>
       </c>
       <c r="C204" t="n">
-        <v>1.032990336418152</v>
+        <v>1.024577379226685</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>1.025097736960017</v>
       </c>
       <c r="C205" t="n">
-        <v>1.032987475395203</v>
+        <v>1.022797703742981</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>1.025106961810341</v>
       </c>
       <c r="C206" t="n">
-        <v>1.02912449836731</v>
+        <v>1.021607637405396</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>1.024850760096996</v>
       </c>
       <c r="C207" t="n">
-        <v>1.027375102043152</v>
+        <v>1.021180152893066</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>1.024737597887763</v>
       </c>
       <c r="C208" t="n">
-        <v>1.027109742164612</v>
+        <v>1.021037817001343</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>1.024824313494587</v>
       </c>
       <c r="C209" t="n">
-        <v>1.027170538902283</v>
+        <v>1.02085268497467</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>1.032931391611322</v>
       </c>
       <c r="C210" t="n">
-        <v>1.027318596839905</v>
+        <v>1.021501898765564</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>1.033599667320584</v>
       </c>
       <c r="C211" t="n">
-        <v>1.0307697057724</v>
+        <v>1.021966099739075</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>1.024972445902382</v>
       </c>
       <c r="C212" t="n">
-        <v>1.031746506690979</v>
+        <v>1.020635724067688</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>1.024708882095911</v>
       </c>
       <c r="C213" t="n">
-        <v>1.028071999549866</v>
+        <v>1.019732713699341</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>1.025009279190011</v>
       </c>
       <c r="C214" t="n">
-        <v>1.02654492855072</v>
+        <v>1.019566535949707</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>1.033188021564175</v>
       </c>
       <c r="C215" t="n">
-        <v>1.026559829711914</v>
+        <v>1.02133846282959</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>1.033777666416473</v>
       </c>
       <c r="C216" t="n">
-        <v>1.030993223190308</v>
+        <v>1.022708058357239</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>1.033752178760559</v>
       </c>
       <c r="C217" t="n">
-        <v>1.032518982887268</v>
+        <v>1.023241400718689</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>1.033868148725616</v>
       </c>
       <c r="C218" t="n">
-        <v>1.032654404640198</v>
+        <v>1.023337721824646</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>1.03397068949328</v>
       </c>
       <c r="C219" t="n">
-        <v>1.032654404640198</v>
+        <v>1.023514986038208</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>1.033994535195747</v>
       </c>
       <c r="C220" t="n">
-        <v>1.032724738121033</v>
+        <v>1.024126887321472</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>1.034130833516157</v>
       </c>
       <c r="C221" t="n">
-        <v>1.033277630805969</v>
+        <v>1.024989247322083</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>1.034648844418499</v>
       </c>
       <c r="C222" t="n">
-        <v>1.033553957939148</v>
+        <v>1.025700211524963</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>1.034585831027146</v>
       </c>
       <c r="C223" t="n">
-        <v>1.033976793289185</v>
+        <v>1.025944471359253</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>1.034587829415127</v>
       </c>
       <c r="C224" t="n">
-        <v>1.03410792350769</v>
+        <v>1.026087045669556</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>1.034424708794265</v>
       </c>
       <c r="C225" t="n">
-        <v>1.03410792350769</v>
+        <v>1.025919318199158</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>1.034434836038581</v>
       </c>
       <c r="C226" t="n">
-        <v>1.03404712677002</v>
+        <v>1.026115894317627</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>1.034463175677039</v>
       </c>
       <c r="C227" t="n">
-        <v>1.03410792350769</v>
+        <v>1.026111841201782</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>1.034410318618172</v>
       </c>
       <c r="C228" t="n">
-        <v>1.03410792350769</v>
+        <v>1.02637505531311</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>1.034439705756664</v>
       </c>
       <c r="C229" t="n">
-        <v>1.03410792350769</v>
+        <v>1.026465892791748</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>1.034477620470253</v>
       </c>
       <c r="C230" t="n">
-        <v>1.03410792350769</v>
+        <v>1.02646803855896</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>1.034410778737283</v>
       </c>
       <c r="C231" t="n">
-        <v>1.0341717004776</v>
+        <v>1.026380658149719</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>1.034365292063277</v>
       </c>
       <c r="C232" t="n">
-        <v>1.03410792350769</v>
+        <v>1.026045680046082</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>1.025507556119695</v>
       </c>
       <c r="C233" t="n">
-        <v>1.033744931221008</v>
+        <v>1.024524927139282</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>1.025033540333676</v>
       </c>
       <c r="C234" t="n">
-        <v>1.03009021282196</v>
+        <v>1.023592352867126</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>1.02452297269689</v>
       </c>
       <c r="C235" t="n">
-        <v>1.028339743614197</v>
+        <v>1.022810459136963</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>1.02331079334101</v>
       </c>
       <c r="C236" t="n">
-        <v>1.027731776237488</v>
+        <v>1.021720290184021</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>1.0176530290179</v>
       </c>
       <c r="C237" t="n">
-        <v>1.026605129241943</v>
+        <v>1.019931197166443</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>1.026010473715815</v>
       </c>
       <c r="C238" t="n">
-        <v>1.024258732795715</v>
+        <v>1.019709348678589</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>1.031450436381748</v>
       </c>
       <c r="C239" t="n">
-        <v>1.026488184928894</v>
+        <v>1.020077705383301</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>1.024291382556471</v>
       </c>
       <c r="C240" t="n">
-        <v>1.029456734657288</v>
+        <v>1.018726825714111</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>1.017558877440162</v>
       </c>
       <c r="C241" t="n">
-        <v>1.026530981063843</v>
+        <v>1.016963720321655</v>
       </c>
     </row>
     <row r="242">
@@ -3098,7 +3098,7 @@
         <v>1.022309687958376</v>
       </c>
       <c r="C242" t="n">
-        <v>1.022729992866516</v>
+        <v>1.0166836977005</v>
       </c>
     </row>
     <row r="243">
@@ -3109,7 +3109,7 @@
         <v>1.034276185388819</v>
       </c>
       <c r="C243" t="n">
-        <v>1.023714065551758</v>
+        <v>1.019224047660828</v>
       </c>
     </row>
     <row r="244">
@@ -3120,7 +3120,7 @@
         <v>1.041325794802977</v>
       </c>
       <c r="C244" t="n">
-        <v>1.030646800994873</v>
+        <v>1.022184371948242</v>
       </c>
     </row>
     <row r="245">
@@ -3131,7 +3131,7 @@
         <v>1.042413367682987</v>
       </c>
       <c r="C245" t="n">
-        <v>1.036740183830261</v>
+        <v>1.024562001228333</v>
       </c>
     </row>
     <row r="246">
@@ -3142,7 +3142,7 @@
         <v>1.03596752522034</v>
       </c>
       <c r="C246" t="n">
-        <v>1.038755536079407</v>
+        <v>1.024314641952515</v>
       </c>
     </row>
     <row r="247">
@@ -3153,7 +3153,7 @@
         <v>1.0324779177198</v>
       </c>
       <c r="C247" t="n">
-        <v>1.035628914833069</v>
+        <v>1.023936748504639</v>
       </c>
     </row>
     <row r="248">
@@ -3164,7 +3164,7 @@
         <v>1.032310043524816</v>
       </c>
       <c r="C248" t="n">
-        <v>1.032787442207336</v>
+        <v>1.024480938911438</v>
       </c>
     </row>
     <row r="249">
@@ -3175,7 +3175,7 @@
         <v>1.026978644406482</v>
       </c>
       <c r="C249" t="n">
-        <v>1.032285213470459</v>
+        <v>1.024742603302002</v>
       </c>
     </row>
     <row r="250">
@@ -3186,7 +3186,7 @@
         <v>1.024050668778639</v>
       </c>
       <c r="C250" t="n">
-        <v>1.030557870864868</v>
+        <v>1.024393439292908</v>
       </c>
     </row>
     <row r="251">
@@ -3197,7 +3197,7 @@
         <v>1.017395681123183</v>
       </c>
       <c r="C251" t="n">
-        <v>1.028825759887695</v>
+        <v>1.02241051197052</v>
       </c>
     </row>
     <row r="252">
@@ -3208,7 +3208,7 @@
         <v>1.026303872602769</v>
       </c>
       <c r="C252" t="n">
-        <v>1.02601158618927</v>
+        <v>1.022054553031921</v>
       </c>
     </row>
     <row r="253">
@@ -3219,7 +3219,7 @@
         <v>1.031899775309505</v>
       </c>
       <c r="C253" t="n">
-        <v>1.027594804763794</v>
+        <v>1.021950960159302</v>
       </c>
     </row>
     <row r="254">
@@ -3230,7 +3230,7 @@
         <v>1.024862782957645</v>
       </c>
       <c r="C254" t="n">
-        <v>1.030427932739258</v>
+        <v>1.020679831504822</v>
       </c>
     </row>
     <row r="255">
@@ -3241,7 +3241,7 @@
         <v>1.017391497993728</v>
       </c>
       <c r="C255" t="n">
-        <v>1.027719259262085</v>
+        <v>1.018150806427002</v>
       </c>
     </row>
     <row r="256">
@@ -3252,7 +3252,7 @@
         <v>1.01752642781854</v>
       </c>
       <c r="C256" t="n">
-        <v>1.023219585418701</v>
+        <v>1.016454458236694</v>
       </c>
     </row>
     <row r="257">
@@ -3263,7 +3263,7 @@
         <v>1.017807017427029</v>
       </c>
       <c r="C257" t="n">
-        <v>1.021333575248718</v>
+        <v>1.015670895576477</v>
       </c>
     </row>
     <row r="258">
@@ -3274,7 +3274,7 @@
         <v>1.017533088454759</v>
       </c>
       <c r="C258" t="n">
-        <v>1.020932674407959</v>
+        <v>1.015530943870544</v>
       </c>
     </row>
     <row r="259">
@@ -3285,7 +3285,7 @@
         <v>1.016708812131979</v>
       </c>
       <c r="C259" t="n">
-        <v>1.021064519882202</v>
+        <v>1.014749765396118</v>
       </c>
     </row>
     <row r="260">
@@ -3296,7 +3296,7 @@
         <v>1.01685661138909</v>
       </c>
       <c r="C260" t="n">
-        <v>1.020503282546997</v>
+        <v>1.01400899887085</v>
       </c>
     </row>
     <row r="261">
@@ -3307,7 +3307,7 @@
         <v>1.024716108603527</v>
       </c>
       <c r="C261" t="n">
-        <v>1.020037174224854</v>
+        <v>1.014542579650879</v>
       </c>
     </row>
     <row r="262">
@@ -3318,7 +3318,7 @@
         <v>1.026421611039837</v>
       </c>
       <c r="C262" t="n">
-        <v>1.023431301116943</v>
+        <v>1.014844536781311</v>
       </c>
     </row>
     <row r="263">
@@ -3329,7 +3329,7 @@
         <v>1.026212152833574</v>
       </c>
       <c r="C263" t="n">
-        <v>1.025291800498962</v>
+        <v>1.015373587608337</v>
       </c>
     </row>
     <row r="264">
@@ -3340,7 +3340,7 @@
         <v>1.016820726396614</v>
       </c>
       <c r="C264" t="n">
-        <v>1.025501489639282</v>
+        <v>1.014313340187073</v>
       </c>
     </row>
     <row r="265">
@@ -3351,7 +3351,7 @@
         <v>1.017259398386571</v>
       </c>
       <c r="C265" t="n">
-        <v>1.021331310272217</v>
+        <v>1.013954520225525</v>
       </c>
     </row>
     <row r="266">
@@ -3362,7 +3362,7 @@
         <v>1.016300588758651</v>
       </c>
       <c r="C266" t="n">
-        <v>1.019812703132629</v>
+        <v>1.013880848884583</v>
       </c>
     </row>
     <row r="267">
@@ -3373,7 +3373,7 @@
         <v>1.015720033895615</v>
       </c>
       <c r="C267" t="n">
-        <v>1.019466996192932</v>
+        <v>1.013839483261108</v>
       </c>
     </row>
     <row r="268">
@@ -3384,7 +3384,7 @@
         <v>1.016751560150086</v>
       </c>
       <c r="C268" t="n">
-        <v>1.019397854804993</v>
+        <v>1.014071941375732</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>1.023716857747792</v>
       </c>
       <c r="C269" t="n">
-        <v>1.01988422870636</v>
+        <v>1.014774084091187</v>
       </c>
     </row>
     <row r="270">
@@ -3406,7 +3406,7 @@
         <v>1.02417968361689</v>
       </c>
       <c r="C270" t="n">
-        <v>1.022936940193176</v>
+        <v>1.014820337295532</v>
       </c>
     </row>
     <row r="271">
@@ -3417,7 +3417,7 @@
         <v>1.014789101035853</v>
       </c>
       <c r="C271" t="n">
-        <v>1.023617506027222</v>
+        <v>1.012733340263367</v>
       </c>
     </row>
     <row r="272">
@@ -3428,7 +3428,7 @@
         <v>1.014723202102736</v>
       </c>
       <c r="C272" t="n">
-        <v>1.019529700279236</v>
+        <v>1.011920094490051</v>
       </c>
     </row>
     <row r="273">
@@ -3439,7 +3439,7 @@
         <v>1.014538676060854</v>
       </c>
       <c r="C273" t="n">
-        <v>1.017806529998779</v>
+        <v>1.011786818504333</v>
       </c>
     </row>
     <row r="274">
@@ -3450,7 +3450,7 @@
         <v>1.014495301827025</v>
       </c>
       <c r="C274" t="n">
-        <v>1.017447590827942</v>
+        <v>1.011962175369263</v>
       </c>
     </row>
     <row r="275">
@@ -3461,7 +3461,7 @@
         <v>1.014299471510257</v>
       </c>
       <c r="C275" t="n">
-        <v>1.017519235610962</v>
+        <v>1.011768937110901</v>
       </c>
     </row>
     <row r="276">
@@ -3472,7 +3472,7 @@
         <v>1.017001726637831</v>
       </c>
       <c r="C276" t="n">
-        <v>1.017521619796753</v>
+        <v>1.011792302131653</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>1.02221615029194</v>
       </c>
       <c r="C277" t="n">
-        <v>1.018650531768799</v>
+        <v>1.012354493141174</v>
       </c>
     </row>
     <row r="278">
@@ -3494,7 +3494,7 @@
         <v>1.022576079869089</v>
       </c>
       <c r="C278" t="n">
-        <v>1.021410584449768</v>
+        <v>1.012436151504517</v>
       </c>
     </row>
     <row r="279">
@@ -3505,7 +3505,7 @@
         <v>1.022708927124495</v>
       </c>
       <c r="C279" t="n">
-        <v>1.022393822669983</v>
+        <v>1.012982487678528</v>
       </c>
     </row>
     <row r="280">
@@ -3516,7 +3516,7 @@
         <v>1.022841304007755</v>
       </c>
       <c r="C280" t="n">
-        <v>1.02273166179657</v>
+        <v>1.013674378395081</v>
       </c>
     </row>
     <row r="281">
@@ -3527,7 +3527,7 @@
         <v>1.022970031759964</v>
       </c>
       <c r="C281" t="n">
-        <v>1.022998332977295</v>
+        <v>1.014474630355835</v>
       </c>
     </row>
     <row r="282">
@@ -3538,7 +3538,7 @@
         <v>1.023240347735711</v>
       </c>
       <c r="C282" t="n">
-        <v>1.023357272148132</v>
+        <v>1.015262722969055</v>
       </c>
     </row>
     <row r="283">
@@ -3549,7 +3549,7 @@
         <v>1.023225403935351</v>
       </c>
       <c r="C283" t="n">
-        <v>1.023563146591187</v>
+        <v>1.016094446182251</v>
       </c>
     </row>
     <row r="284">
@@ -3560,7 +3560,7 @@
         <v>1.023366044877534</v>
       </c>
       <c r="C284" t="n">
-        <v>1.024116039276123</v>
+        <v>1.016653299331665</v>
       </c>
     </row>
     <row r="285">
@@ -3571,7 +3571,7 @@
         <v>1.023144873913198</v>
       </c>
       <c r="C285" t="n">
-        <v>1.024186372756958</v>
+        <v>1.016818284988403</v>
       </c>
     </row>
     <row r="286">
@@ -3582,7 +3582,7 @@
         <v>1.022991757215897</v>
       </c>
       <c r="C286" t="n">
-        <v>1.024186372756958</v>
+        <v>1.016833543777466</v>
       </c>
     </row>
     <row r="287">
@@ -3593,7 +3593,7 @@
         <v>1.023463941331755</v>
       </c>
       <c r="C287" t="n">
-        <v>1.024187564849854</v>
+        <v>1.017018795013428</v>
       </c>
     </row>
     <row r="288">
@@ -3604,7 +3604,7 @@
         <v>1.023229950254388</v>
       </c>
       <c r="C288" t="n">
-        <v>1.024321794509888</v>
+        <v>1.017018556594849</v>
       </c>
     </row>
     <row r="289">
@@ -3615,7 +3615,7 @@
         <v>1.02335070809114</v>
       </c>
       <c r="C289" t="n">
-        <v>1.024321794509888</v>
+        <v>1.017063140869141</v>
       </c>
     </row>
     <row r="290">
@@ -3626,7 +3626,7 @@
         <v>1.023403150147705</v>
       </c>
       <c r="C290" t="n">
-        <v>1.024393439292908</v>
+        <v>1.01709771156311</v>
       </c>
     </row>
     <row r="291">
@@ -3637,7 +3637,7 @@
         <v>1.02361361728887</v>
       </c>
       <c r="C291" t="n">
-        <v>1.024393439292908</v>
+        <v>1.017093777656555</v>
       </c>
     </row>
     <row r="292">
@@ -3648,7 +3648,7 @@
         <v>1.0174533828682</v>
       </c>
       <c r="C292" t="n">
-        <v>1.024245381355286</v>
+        <v>1.016027092933655</v>
       </c>
     </row>
     <row r="293">
@@ -3659,7 +3659,7 @@
         <v>1.007393295887648</v>
       </c>
       <c r="C293" t="n">
-        <v>1.021182656288147</v>
+        <v>1.013641834259033</v>
       </c>
     </row>
     <row r="294">
@@ -3670,7 +3670,7 @@
         <v>1.007991463596018</v>
       </c>
       <c r="C294" t="n">
-        <v>1.016467452049255</v>
+        <v>1.011893272399902</v>
       </c>
     </row>
     <row r="295">
@@ -3681,7 +3681,7 @@
         <v>1.00706936233085</v>
       </c>
       <c r="C295" t="n">
-        <v>1.014742970466614</v>
+        <v>1.010633707046509</v>
       </c>
     </row>
     <row r="296">
@@ -3692,7 +3692,7 @@
         <v>1.00625570229784</v>
       </c>
       <c r="C296" t="n">
-        <v>1.013625383377075</v>
+        <v>1.00900673866272</v>
       </c>
     </row>
     <row r="297">
@@ -3703,7 +3703,7 @@
         <v>1.008095297799917</v>
       </c>
       <c r="C297" t="n">
-        <v>1.01269519329071</v>
+        <v>1.007573366165161</v>
       </c>
     </row>
     <row r="298">
@@ -3714,7 +3714,7 @@
         <v>1.015006483329086</v>
       </c>
       <c r="C298" t="n">
-        <v>1.012740850448608</v>
+        <v>1.007570624351501</v>
       </c>
     </row>
     <row r="299">
@@ -3725,7 +3725,7 @@
         <v>1.01542247229741</v>
       </c>
       <c r="C299" t="n">
-        <v>1.015367746353149</v>
+        <v>1.006895184516907</v>
       </c>
     </row>
     <row r="300">
@@ -3736,7 +3736,7 @@
         <v>1.005606057206939</v>
       </c>
       <c r="C300" t="n">
-        <v>1.01570451259613</v>
+        <v>1.004437327384949</v>
       </c>
     </row>
     <row r="301">
@@ -3747,7 +3747,7 @@
         <v>1.005302648441894</v>
       </c>
       <c r="C301" t="n">
-        <v>1.011194705963135</v>
+        <v>1.003545522689819</v>
       </c>
     </row>
     <row r="302">
@@ -3758,7 +3758,7 @@
         <v>1.005341327110563</v>
       </c>
       <c r="C302" t="n">
-        <v>1.00939404964447</v>
+        <v>1.003148794174194</v>
       </c>
     </row>
     <row r="303">
@@ -3769,7 +3769,7 @@
         <v>1.005215112020253</v>
       </c>
       <c r="C303" t="n">
-        <v>1.008907794952393</v>
+        <v>1.003208994865417</v>
       </c>
     </row>
     <row r="304">
@@ -3780,7 +3780,7 @@
         <v>0.9989286036693813</v>
       </c>
       <c r="C304" t="n">
-        <v>1.008823871612549</v>
+        <v>1.001836895942688</v>
       </c>
     </row>
     <row r="305">
@@ -3791,7 +3791,7 @@
         <v>1.007540917935681</v>
       </c>
       <c r="C305" t="n">
-        <v>1.006587147712708</v>
+        <v>1.002440094947815</v>
       </c>
     </row>
     <row r="306">
@@ -3802,7 +3802,7 @@
         <v>1.00830524234839</v>
       </c>
       <c r="C306" t="n">
-        <v>1.009114146232605</v>
+        <v>1.002291798591614</v>
       </c>
     </row>
     <row r="307">
@@ -3813,7 +3813,7 @@
         <v>1.014675304454405</v>
       </c>
       <c r="C307" t="n">
-        <v>1.01027524471283</v>
+        <v>1.003297328948975</v>
       </c>
     </row>
     <row r="308">
@@ -3824,7 +3824,7 @@
         <v>1.008734209387385</v>
       </c>
       <c r="C308" t="n">
-        <v>1.013523578643799</v>
+        <v>1.002415776252747</v>
       </c>
     </row>
     <row r="309">
@@ -3835,7 +3835,7 @@
         <v>1.015813788452634</v>
       </c>
       <c r="C309" t="n">
-        <v>1.011937022209167</v>
+        <v>1.004114747047424</v>
       </c>
     </row>
     <row r="310">
@@ -3846,7 +3846,7 @@
         <v>1.016992846092003</v>
       </c>
       <c r="C310" t="n">
-        <v>1.014994502067566</v>
+        <v>1.005452990531921</v>
       </c>
     </row>
     <row r="311">
@@ -3857,7 +3857,7 @@
         <v>1.017187226693469</v>
       </c>
       <c r="C311" t="n">
-        <v>1.016623854637146</v>
+        <v>1.007232904434204</v>
       </c>
     </row>
     <row r="312">
@@ -3868,7 +3868,7 @@
         <v>1.006681212319234</v>
       </c>
       <c r="C312" t="n">
-        <v>1.017098426818848</v>
+        <v>1.006126880645752</v>
       </c>
     </row>
     <row r="313">
@@ -3879,7 +3879,7 @@
         <v>1.006571939184148</v>
       </c>
       <c r="C313" t="n">
-        <v>1.012650609016418</v>
+        <v>1.006159663200378</v>
       </c>
     </row>
     <row r="314">
@@ -3890,7 +3890,7 @@
         <v>1.006150841801412</v>
       </c>
       <c r="C314" t="n">
-        <v>1.010995149612427</v>
+        <v>1.00588595867157</v>
       </c>
     </row>
     <row r="315">
@@ -3901,7 +3901,7 @@
         <v>1.005861086076227</v>
       </c>
       <c r="C315" t="n">
-        <v>1.010430216789246</v>
+        <v>1.00549590587616</v>
       </c>
     </row>
     <row r="316">
@@ -3912,7 +3912,7 @@
         <v>1.006001465893502</v>
       </c>
       <c r="C316" t="n">
-        <v>1.010364890098572</v>
+        <v>1.004909157752991</v>
       </c>
     </row>
     <row r="317">
@@ -3923,7 +3923,7 @@
         <v>1.008462290277607</v>
       </c>
       <c r="C317" t="n">
-        <v>1.010335445404053</v>
+        <v>1.00466775894165</v>
       </c>
     </row>
     <row r="318">
@@ -3934,7 +3934,7 @@
         <v>1.013883093384726</v>
       </c>
       <c r="C318" t="n">
-        <v>1.011174321174622</v>
+        <v>1.00476348400116</v>
       </c>
     </row>
     <row r="319">
@@ -3945,7 +3945,7 @@
         <v>1.013968099181708</v>
       </c>
       <c r="C319" t="n">
-        <v>1.013765454292297</v>
+        <v>1.004875421524048</v>
       </c>
     </row>
     <row r="320">
@@ -3956,7 +3956,7 @@
         <v>1.013993837825036</v>
       </c>
       <c r="C320" t="n">
-        <v>1.014463305473328</v>
+        <v>1.00514554977417</v>
       </c>
     </row>
     <row r="321">
@@ -3967,7 +3967,7 @@
         <v>1.014211864283601</v>
       </c>
       <c r="C321" t="n">
-        <v>1.014892935752869</v>
+        <v>1.005963802337646</v>
       </c>
     </row>
     <row r="322">
@@ -3978,7 +3978,7 @@
         <v>1.014195476925928</v>
       </c>
       <c r="C322" t="n">
-        <v>1.015087842941284</v>
+        <v>1.006664752960205</v>
       </c>
     </row>
     <row r="323">
@@ -3989,7 +3989,7 @@
         <v>1.014132483322733</v>
       </c>
       <c r="C323" t="n">
-        <v>1.015293717384338</v>
+        <v>1.007553696632385</v>
       </c>
     </row>
     <row r="324">
@@ -4000,7 +4000,7 @@
         <v>1.014032492263108</v>
       </c>
       <c r="C324" t="n">
-        <v>1.015581011772156</v>
+        <v>1.008177757263184</v>
       </c>
     </row>
     <row r="325">
@@ -4011,7 +4011,7 @@
         <v>1.013957281352046</v>
       </c>
       <c r="C325" t="n">
-        <v>1.015788078308105</v>
+        <v>1.008886933326721</v>
       </c>
     </row>
     <row r="326">
@@ -4022,7 +4022,7 @@
         <v>1.013790132447858</v>
       </c>
       <c r="C326" t="n">
-        <v>1.015788078308105</v>
+        <v>1.008808016777039</v>
       </c>
     </row>
     <row r="327">
@@ -4033,7 +4033,7 @@
         <v>1.013593325172585</v>
       </c>
       <c r="C327" t="n">
-        <v>1.015716552734375</v>
+        <v>1.008813500404358</v>
       </c>
     </row>
     <row r="328">
@@ -4044,7 +4044,7 @@
         <v>1.013598007998742</v>
       </c>
       <c r="C328" t="n">
-        <v>1.015652656555176</v>
+        <v>1.008819341659546</v>
       </c>
     </row>
     <row r="329">
@@ -4055,7 +4055,7 @@
         <v>1.013552219322753</v>
       </c>
       <c r="C329" t="n">
-        <v>1.015653848648071</v>
+        <v>1.008771300315857</v>
       </c>
     </row>
     <row r="330">
@@ -4066,7 +4066,7 @@
         <v>1.013345588568786</v>
       </c>
       <c r="C330" t="n">
-        <v>1.015582203865051</v>
+        <v>1.008700132369995</v>
       </c>
     </row>
     <row r="331">
@@ -4077,7 +4077,7 @@
         <v>1.01314365013501</v>
       </c>
       <c r="C331" t="n">
-        <v>1.015510559082031</v>
+        <v>1.008646130561829</v>
       </c>
     </row>
     <row r="332">
@@ -4088,7 +4088,7 @@
         <v>0.9978711928911943</v>
       </c>
       <c r="C332" t="n">
-        <v>1.014791131019592</v>
+        <v>1.005279064178467</v>
       </c>
     </row>
     <row r="333">
@@ -4099,7 +4099,7 @@
         <v>0.996719450957507</v>
       </c>
       <c r="C333" t="n">
-        <v>1.008620858192444</v>
+        <v>1.002822518348694</v>
       </c>
     </row>
     <row r="334">
@@ -4110,7 +4110,7 @@
         <v>0.9964280446911205</v>
       </c>
       <c r="C334" t="n">
-        <v>1.005283951759338</v>
+        <v>1.001259922981262</v>
       </c>
     </row>
     <row r="335">
@@ -4121,7 +4121,7 @@
         <v>0.9903364340419616</v>
       </c>
       <c r="C335" t="n">
-        <v>1.003840684890747</v>
+        <v>0.99805748462677</v>
       </c>
     </row>
     <row r="336">
@@ -4132,7 +4132,7 @@
         <v>0.9891596882227053</v>
       </c>
       <c r="C336" t="n">
-        <v>1.00110924243927</v>
+        <v>0.9954695105552673</v>
       </c>
     </row>
     <row r="337">
@@ -4143,7 +4143,7 @@
         <v>0.9986291173241679</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9994032382965088</v>
+        <v>0.9948633313179016</v>
       </c>
     </row>
     <row r="338">
@@ -4154,7 +4154,7 @@
         <v>1.004433984537184</v>
       </c>
       <c r="C338" t="n">
-        <v>1.001943945884705</v>
+        <v>0.9948468208312988</v>
       </c>
     </row>
     <row r="339">
@@ -4165,7 +4165,7 @@
         <v>0.9963719741846124</v>
       </c>
       <c r="C339" t="n">
-        <v>1.00454843044281</v>
+        <v>0.9920086860656738</v>
       </c>
     </row>
     <row r="340">
@@ -4176,7 +4176,7 @@
         <v>0.9887604111658148</v>
       </c>
       <c r="C340" t="n">
-        <v>1.001103639602661</v>
+        <v>0.98880934715271</v>
       </c>
     </row>
     <row r="341">
@@ -4187,7 +4187,7 @@
         <v>0.9887955724465304</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9961315393447876</v>
+        <v>0.9875519275665283</v>
       </c>
     </row>
     <row r="342">
@@ -4198,7 +4198,7 @@
         <v>0.9880703208997488</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9943700432777405</v>
+        <v>0.9872087836265564</v>
       </c>
     </row>
     <row r="343">
@@ -4209,7 +4209,7 @@
         <v>0.9881639128567832</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9937098622322083</v>
+        <v>0.9868404269218445</v>
       </c>
     </row>
     <row r="344">
@@ -4220,7 +4220,7 @@
         <v>0.9958036768523265</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9942529201507568</v>
+        <v>0.9883260130882263</v>
       </c>
     </row>
     <row r="345">
@@ -4231,7 +4231,7 @@
         <v>0.9963216862571749</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9976432919502258</v>
+        <v>0.9883809089660645</v>
       </c>
     </row>
     <row r="346">
@@ -4242,7 +4242,7 @@
         <v>0.9965881168420149</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9984712600708008</v>
+        <v>0.9876890778541565</v>
       </c>
     </row>
     <row r="347">
@@ -4253,7 +4253,7 @@
         <v>0.9872799588894782</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9981834888458252</v>
+        <v>0.985131561756134</v>
       </c>
     </row>
     <row r="348">
@@ -4264,7 +4264,7 @@
         <v>0.9812322081350516</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9936529994010925</v>
+        <v>0.9830034375190735</v>
       </c>
     </row>
     <row r="349">
@@ -4275,7 +4275,7 @@
         <v>0.9806531260111739</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9895138740539551</v>
+        <v>0.9819275140762329</v>
       </c>
     </row>
     <row r="350">
@@ -4286,7 +4286,7 @@
         <v>0.9808617543416331</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9880976676940918</v>
+        <v>0.9814253449440002</v>
       </c>
     </row>
     <row r="351">
@@ -4297,7 +4297,7 @@
         <v>0.986848856155223</v>
       </c>
       <c r="C351" t="n">
-        <v>0.9883608818054199</v>
+        <v>0.9820091128349304</v>
       </c>
     </row>
     <row r="352">
@@ -4308,7 +4308,7 @@
         <v>0.9893851532734796</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9907307624816895</v>
+        <v>0.9819729328155518</v>
       </c>
     </row>
     <row r="353">
@@ -4319,7 +4319,7 @@
         <v>0.9899242114487227</v>
       </c>
       <c r="C353" t="n">
-        <v>0.9922520518302917</v>
+        <v>0.9810680150985718</v>
       </c>
     </row>
     <row r="354">
@@ -4330,7 +4330,7 @@
         <v>0.980670637152282</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9919111728668213</v>
+        <v>0.9782707691192627</v>
       </c>
     </row>
     <row r="355">
@@ -4341,7 +4341,7 @@
         <v>0.9876057896396073</v>
       </c>
       <c r="C355" t="n">
-        <v>0.9880890846252441</v>
+        <v>0.9785235524177551</v>
       </c>
     </row>
     <row r="356">
@@ -4352,7 +4352,7 @@
         <v>0.9871285872282548</v>
       </c>
       <c r="C356" t="n">
-        <v>0.9895354509353638</v>
+        <v>0.9792388677597046</v>
       </c>
     </row>
     <row r="357">
@@ -4363,7 +4363,7 @@
         <v>0.9798390804339854</v>
       </c>
       <c r="C357" t="n">
-        <v>0.9900065660476685</v>
+        <v>0.97833651304245</v>
       </c>
     </row>
     <row r="358">
@@ -4374,7 +4374,7 @@
         <v>0.9887487032321779</v>
       </c>
       <c r="C358" t="n">
-        <v>0.9875635504722595</v>
+        <v>0.9798566102981567</v>
       </c>
     </row>
     <row r="359">
@@ -4385,7 +4385,7 @@
         <v>0.989442251069636</v>
       </c>
       <c r="C359" t="n">
-        <v>0.9904411435127258</v>
+        <v>0.9807016849517822</v>
       </c>
     </row>
     <row r="360">
@@ -4396,7 +4396,7 @@
         <v>0.9805879735918717</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9914636015892029</v>
+        <v>0.9787899255752563</v>
       </c>
     </row>
     <row r="361">
@@ -4407,7 +4407,7 @@
         <v>0.9788625497473725</v>
       </c>
       <c r="C361" t="n">
-        <v>0.987615168094635</v>
+        <v>0.9773848652839661</v>
       </c>
     </row>
     <row r="362">
@@ -4418,7 +4418,7 @@
         <v>0.9789177647548614</v>
       </c>
       <c r="C362" t="n">
-        <v>0.985425591468811</v>
+        <v>0.9766091704368591</v>
       </c>
     </row>
     <row r="363">
@@ -4429,7 +4429,7 @@
         <v>0.9785663118667998</v>
       </c>
       <c r="C363" t="n">
-        <v>0.9845940470695496</v>
+        <v>0.9761300683021545</v>
       </c>
     </row>
     <row r="364">
@@ -4440,7 +4440,7 @@
         <v>0.9720475801196982</v>
       </c>
       <c r="C364" t="n">
-        <v>0.9839168190956116</v>
+        <v>0.9740836024284363</v>
       </c>
     </row>
     <row r="365">
@@ -4451,7 +4451,7 @@
         <v>0.9805258335002296</v>
       </c>
       <c r="C365" t="n">
-        <v>0.981681227684021</v>
+        <v>0.9743331074714661</v>
       </c>
     </row>
     <row r="366">
@@ -4462,7 +4462,7 @@
         <v>0.9867903186191463</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9841281771659851</v>
+        <v>0.9752633571624756</v>
       </c>
     </row>
     <row r="367">
@@ -4473,7 +4473,7 @@
         <v>0.9869358069034702</v>
       </c>
       <c r="C367" t="n">
-        <v>0.9878405928611755</v>
+        <v>0.975214958190918</v>
       </c>
     </row>
     <row r="368">
@@ -4484,7 +4484,7 @@
         <v>0.9869974104743844</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9887692928314209</v>
+        <v>0.9753298163414001</v>
       </c>
     </row>
     <row r="369">
@@ -4495,7 +4495,7 @@
         <v>0.9870931253739523</v>
       </c>
       <c r="C369" t="n">
-        <v>0.989256739616394</v>
+        <v>0.9761502742767334</v>
       </c>
     </row>
     <row r="370">
@@ -4506,7 +4506,7 @@
         <v>0.9875769748547524</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9894318580627441</v>
+        <v>0.9772922992706299</v>
       </c>
     </row>
     <row r="371">
@@ -4517,7 +4517,7 @@
         <v>0.987766753393149</v>
       </c>
       <c r="C371" t="n">
-        <v>0.9899609684944153</v>
+        <v>0.9787623882293701</v>
       </c>
     </row>
     <row r="372">
@@ -4528,7 +4528,7 @@
         <v>0.9879057636929246</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9903965592384338</v>
+        <v>0.9800952672958374</v>
       </c>
     </row>
     <row r="373">
@@ -4539,7 +4539,7 @@
         <v>0.9880260928986186</v>
       </c>
       <c r="C373" t="n">
-        <v>0.9909555315971375</v>
+        <v>0.9810335636138916</v>
       </c>
     </row>
     <row r="374">
@@ -4550,7 +4550,7 @@
         <v>0.988054581564531</v>
       </c>
       <c r="C374" t="n">
-        <v>0.9911614656448364</v>
+        <v>0.9815368056297302</v>
       </c>
     </row>
     <row r="375">
@@ -4561,7 +4561,7 @@
         <v>0.9880638015610195</v>
       </c>
       <c r="C375" t="n">
-        <v>0.9913464188575745</v>
+        <v>0.9816215038299561</v>
       </c>
     </row>
     <row r="376">
@@ -4572,7 +4572,7 @@
         <v>0.9880478453308633</v>
       </c>
       <c r="C376" t="n">
-        <v>0.9914500117301941</v>
+        <v>0.9815497398376465</v>
       </c>
     </row>
     <row r="377">
@@ -4583,7 +4583,7 @@
         <v>0.9880156212168558</v>
       </c>
       <c r="C377" t="n">
-        <v>0.9914500117301941</v>
+        <v>0.9816060066223145</v>
       </c>
     </row>
     <row r="378">
@@ -4594,7 +4594,7 @@
         <v>0.9880945853596906</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9914500117301941</v>
+        <v>0.9818436503410339</v>
       </c>
     </row>
     <row r="379">
@@ -4605,7 +4605,7 @@
         <v>0.9882878104161201</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9915881752967834</v>
+        <v>0.9818394184112549</v>
       </c>
     </row>
     <row r="380">
@@ -4616,7 +4616,7 @@
         <v>0.988051722660079</v>
       </c>
       <c r="C380" t="n">
-        <v>0.9916189312934875</v>
+        <v>0.98183673620224</v>
       </c>
     </row>
     <row r="381">
@@ -4627,7 +4627,7 @@
         <v>0.9877689739534214</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9915870428085327</v>
+        <v>0.9815991520881653</v>
       </c>
     </row>
     <row r="382">
@@ -4638,7 +4638,7 @@
         <v>0.9713551397546277</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9907850623130798</v>
+        <v>0.9781731367111206</v>
       </c>
     </row>
     <row r="383">
@@ -4649,7 +4649,7 @@
         <v>0.9706076201936834</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9843617081642151</v>
+        <v>0.9760422706604004</v>
       </c>
     </row>
     <row r="384">
@@ -4660,7 +4660,7 @@
         <v>0.9702660331772943</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9809606671333313</v>
+        <v>0.9741283655166626</v>
       </c>
     </row>
     <row r="385">
@@ -4671,7 +4671,7 @@
         <v>0.9698585981032344</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9797035455703735</v>
+        <v>0.9722558259963989</v>
       </c>
     </row>
     <row r="386">
@@ -4682,7 +4682,7 @@
         <v>0.9695250191367522</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9789066314697266</v>
+        <v>0.9705736637115479</v>
       </c>
     </row>
     <row r="387">
@@ -4693,7 +4693,7 @@
         <v>0.9782195802637865</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9782640933990479</v>
+        <v>0.9701705574989319</v>
       </c>
     </row>
     <row r="388">
@@ -4704,7 +4704,7 @@
         <v>0.9788754465180952</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9810847043991089</v>
+        <v>0.9689889550209045</v>
       </c>
     </row>
     <row r="389">
@@ -4715,7 +4715,7 @@
         <v>0.9698409525179913</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9812919497489929</v>
+        <v>0.9664833545684814</v>
       </c>
     </row>
     <row r="390">
@@ -4726,7 +4726,7 @@
         <v>0.9629003672630597</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9769253730773926</v>
+        <v>0.963691771030426</v>
       </c>
     </row>
     <row r="391">
@@ -4737,7 +4737,7 @@
         <v>0.9690528886991612</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9727936983108521</v>
+        <v>0.9642420411109924</v>
       </c>
     </row>
     <row r="392">
@@ -4748,7 +4748,7 @@
         <v>0.9624270907348154</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9733859896659851</v>
+        <v>0.9629920721054077</v>
       </c>
     </row>
     <row r="393">
@@ -4759,7 +4759,7 @@
         <v>0.9612906387587777</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9714153409004211</v>
+        <v>0.9620811939239502</v>
       </c>
     </row>
     <row r="394">
@@ -4770,7 +4770,7 @@
         <v>0.9704289134398695</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9706434011459351</v>
+        <v>0.9628804922103882</v>
       </c>
     </row>
     <row r="395">
@@ -4781,7 +4781,7 @@
         <v>0.9720281316604026</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9738417267799377</v>
+        <v>0.9626758694648743</v>
       </c>
     </row>
     <row r="396">
@@ -4792,7 +4792,7 @@
         <v>0.9710274055691549</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9752269983291626</v>
+        <v>0.9621349573135376</v>
       </c>
     </row>
     <row r="397">
@@ -4803,7 +4803,7 @@
         <v>0.9613023964887242</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9744657278060913</v>
+        <v>0.9594495892524719</v>
       </c>
     </row>
     <row r="398">
@@ -4814,7 +4814,7 @@
         <v>0.9613913364563892</v>
       </c>
       <c r="C398" t="n">
-        <v>0.9701201319694519</v>
+        <v>0.9585852026939392</v>
       </c>
     </row>
     <row r="399">
@@ -4825,7 +4825,7 @@
         <v>0.9619237057283837</v>
       </c>
       <c r="C399" t="n">
-        <v>0.9682093262672424</v>
+        <v>0.9587802290916443</v>
       </c>
     </row>
     <row r="400">
@@ -4836,7 +4836,7 @@
         <v>0.9612168294183128</v>
       </c>
       <c r="C400" t="n">
-        <v>0.968174934387207</v>
+        <v>0.9586654901504517</v>
       </c>
     </row>
     <row r="401">
@@ -4847,7 +4847,7 @@
         <v>0.9617217069654501</v>
       </c>
       <c r="C401" t="n">
-        <v>0.9681045413017273</v>
+        <v>0.958232045173645</v>
       </c>
     </row>
     <row r="402">
@@ -4858,7 +4858,7 @@
         <v>0.9703700798736661</v>
       </c>
       <c r="C402" t="n">
-        <v>0.9685893654823303</v>
+        <v>0.9595561623573303</v>
       </c>
     </row>
     <row r="403">
@@ -4869,7 +4869,7 @@
         <v>0.9710524433317429</v>
       </c>
       <c r="C403" t="n">
-        <v>0.9724130034446716</v>
+        <v>0.9597272276878357</v>
       </c>
     </row>
     <row r="404">
@@ -4880,7 +4880,7 @@
         <v>0.9696230263834539</v>
       </c>
       <c r="C404" t="n">
-        <v>0.9737924337387085</v>
+        <v>0.9592626094818115</v>
       </c>
     </row>
     <row r="405">
@@ -4891,7 +4891,7 @@
         <v>0.9693632572348891</v>
       </c>
       <c r="C405" t="n">
-        <v>0.9732652306556702</v>
+        <v>0.9596900939941406</v>
       </c>
     </row>
     <row r="406">
@@ -4902,7 +4902,7 @@
         <v>0.9625957474778958</v>
       </c>
       <c r="C406" t="n">
-        <v>0.9726890325546265</v>
+        <v>0.9589301943778992</v>
       </c>
     </row>
     <row r="407">
@@ -4913,7 +4913,7 @@
         <v>0.9611350790908408</v>
       </c>
       <c r="C407" t="n">
-        <v>0.9697600603103638</v>
+        <v>0.9587287902832031</v>
       </c>
     </row>
     <row r="408">
@@ -4924,7 +4924,7 @@
         <v>0.960562596576569</v>
       </c>
       <c r="C408" t="n">
-        <v>0.968237578868866</v>
+        <v>0.9586468935012817</v>
       </c>
     </row>
     <row r="409">
@@ -4935,7 +4935,7 @@
         <v>0.9605199091503703</v>
       </c>
       <c r="C409" t="n">
-        <v>0.967861533164978</v>
+        <v>0.9586921334266663</v>
       </c>
     </row>
     <row r="410">
@@ -4946,7 +4946,7 @@
         <v>0.9603391376101094</v>
       </c>
       <c r="C410" t="n">
-        <v>0.9675123691558838</v>
+        <v>0.9579160809516907</v>
       </c>
     </row>
     <row r="411">
@@ -4957,7 +4957,7 @@
         <v>0.9537056241037136</v>
       </c>
       <c r="C411" t="n">
-        <v>0.9667250514030457</v>
+        <v>0.9552266001701355</v>
       </c>
     </row>
     <row r="412">
@@ -4968,7 +4968,7 @@
         <v>0.953132292701464</v>
       </c>
       <c r="C412" t="n">
-        <v>0.9635345339775085</v>
+        <v>0.9534415602684021</v>
       </c>
     </row>
     <row r="413">
@@ -4979,7 +4979,7 @@
         <v>0.9619391992843658</v>
       </c>
       <c r="C413" t="n">
-        <v>0.9621391296386719</v>
+        <v>0.9536364674568176</v>
       </c>
     </row>
     <row r="414">
@@ -4990,7 +4990,7 @@
         <v>0.9628783066625226</v>
       </c>
       <c r="C414" t="n">
-        <v>0.9654029607772827</v>
+        <v>0.9538130164146423</v>
       </c>
     </row>
     <row r="415">
@@ -5001,7 +5001,7 @@
         <v>0.9688040597530231</v>
       </c>
       <c r="C415" t="n">
-        <v>0.9671978950500488</v>
+        <v>0.9551822543144226</v>
       </c>
     </row>
     <row r="416">
@@ -5012,7 +5012,7 @@
         <v>0.9688642892072772</v>
       </c>
       <c r="C416" t="n">
-        <v>0.9705243110656738</v>
+        <v>0.9557998180389404</v>
       </c>
     </row>
     <row r="417">
@@ -5023,7 +5023,7 @@
         <v>0.9689266272807916</v>
       </c>
       <c r="C417" t="n">
-        <v>0.9716060757637024</v>
+        <v>0.956463634967804</v>
       </c>
     </row>
     <row r="418">
@@ -5034,7 +5034,7 @@
         <v>0.9689735903065505</v>
       </c>
       <c r="C418" t="n">
-        <v>0.9719085693359375</v>
+        <v>0.9576696157455444</v>
       </c>
     </row>
     <row r="419">
@@ -5045,7 +5045,7 @@
         <v>0.9690136844446583</v>
       </c>
       <c r="C419" t="n">
-        <v>0.9723341464996338</v>
+        <v>0.9590898752212524</v>
       </c>
     </row>
     <row r="420">
@@ -5056,7 +5056,7 @@
         <v>0.9525782330817048</v>
       </c>
       <c r="C420" t="n">
-        <v>0.9718984961509705</v>
+        <v>0.9571704864501953</v>
       </c>
     </row>
     <row r="421">
@@ -5067,7 +5067,7 @@
         <v>0.9517306856880823</v>
       </c>
       <c r="C421" t="n">
-        <v>0.9658104777336121</v>
+        <v>0.9562178254127502</v>
       </c>
     </row>
     <row r="422">
@@ -5078,7 +5078,7 @@
         <v>0.953229968721245</v>
       </c>
       <c r="C422" t="n">
-        <v>0.9630102515220642</v>
+        <v>0.9554506540298462</v>
       </c>
     </row>
     <row r="423">
@@ -5089,7 +5089,7 @@
         <v>0.953804965423058</v>
       </c>
       <c r="C423" t="n">
-        <v>0.9624921083450317</v>
+        <v>0.9545136690139771</v>
       </c>
     </row>
     <row r="424">
@@ -5100,7 +5100,7 @@
         <v>0.9537991114043858</v>
       </c>
       <c r="C424" t="n">
-        <v>0.9624192714691162</v>
+        <v>0.9530113339424133</v>
       </c>
     </row>
     <row r="425">
@@ -5111,7 +5111,7 @@
         <v>0.9433205998068812</v>
       </c>
       <c r="C425" t="n">
-        <v>0.9615522623062134</v>
+        <v>0.9488803148269653</v>
       </c>
     </row>
     <row r="426">
@@ -5122,7 +5122,7 @@
         <v>0.9429020531602065</v>
       </c>
       <c r="C426" t="n">
-        <v>0.956794261932373</v>
+        <v>0.9458871483802795</v>
       </c>
     </row>
     <row r="427">
@@ -5133,7 +5133,7 @@
         <v>0.9433696568148071</v>
       </c>
       <c r="C427" t="n">
-        <v>0.9535317420959473</v>
+        <v>0.9436662197113037</v>
       </c>
     </row>
     <row r="428">
@@ -5144,7 +5144,7 @@
         <v>0.942927884279844</v>
       </c>
       <c r="C428" t="n">
-        <v>0.9524708986282349</v>
+        <v>0.9423117637634277</v>
       </c>
     </row>
     <row r="429">
@@ -5155,7 +5155,7 @@
         <v>0.9423491884146928</v>
       </c>
       <c r="C429" t="n">
-        <v>0.9518689513206482</v>
+        <v>0.9413838982582092</v>
       </c>
     </row>
     <row r="430">
@@ -5166,7 +5166,7 @@
         <v>0.951002610484714</v>
       </c>
       <c r="C430" t="n">
-        <v>0.9517000913619995</v>
+        <v>0.9419901371002197</v>
       </c>
     </row>
     <row r="431">
@@ -5177,7 +5177,7 @@
         <v>0.9511630947877241</v>
       </c>
       <c r="C431" t="n">
-        <v>0.9547686576843262</v>
+        <v>0.9417034387588501</v>
       </c>
     </row>
     <row r="432">
@@ -5188,7 +5188,7 @@
         <v>0.942987486890527</v>
       </c>
       <c r="C432" t="n">
-        <v>0.9552236795425415</v>
+        <v>0.9397371411323547</v>
       </c>
     </row>
     <row r="433">
@@ -5199,7 +5199,7 @@
         <v>0.9347610714278018</v>
       </c>
       <c r="C433" t="n">
-        <v>0.9512814283370972</v>
+        <v>0.9372047781944275</v>
       </c>
     </row>
     <row r="434">
@@ -5210,7 +5210,7 @@
         <v>0.9344902213289143</v>
       </c>
       <c r="C434" t="n">
-        <v>0.946898341178894</v>
+        <v>0.9363600611686707</v>
       </c>
     </row>
     <row r="435">
@@ -5221,7 +5221,7 @@
         <v>0.9349772104548064</v>
       </c>
       <c r="C435" t="n">
-        <v>0.9450626969337463</v>
+        <v>0.9360725879669189</v>
       </c>
     </row>
     <row r="436">
@@ -5232,7 +5232,7 @@
         <v>0.9349701234514671</v>
       </c>
       <c r="C436" t="n">
-        <v>0.9449272155761719</v>
+        <v>0.9354854822158813</v>
       </c>
     </row>
     <row r="437">
@@ -5243,7 +5243,7 @@
         <v>0.9348024105141693</v>
       </c>
       <c r="C437" t="n">
-        <v>0.9448543787002563</v>
+        <v>0.9342764019966125</v>
       </c>
     </row>
     <row r="438">
@@ -5254,7 +5254,7 @@
         <v>0.9434640075108637</v>
       </c>
       <c r="C438" t="n">
-        <v>0.9446879029273987</v>
+        <v>0.9347321391105652</v>
       </c>
     </row>
     <row r="439">
@@ -5265,7 +5265,7 @@
         <v>0.9438785807432131</v>
       </c>
       <c r="C439" t="n">
-        <v>0.9476603269577026</v>
+        <v>0.9339274168014526</v>
       </c>
     </row>
     <row r="440">
@@ -5276,7 +5276,7 @@
         <v>0.9339827265464131</v>
       </c>
       <c r="C440" t="n">
-        <v>0.9482042789459229</v>
+        <v>0.9317195415496826</v>
       </c>
     </row>
     <row r="441">
@@ -5287,7 +5287,7 @@
         <v>0.9256383000699394</v>
       </c>
       <c r="C441" t="n">
-        <v>0.9438132047653198</v>
+        <v>0.9291201233863831</v>
       </c>
     </row>
     <row r="442">
@@ -5298,7 +5298,7 @@
         <v>0.9262800908523765</v>
       </c>
       <c r="C442" t="n">
-        <v>0.9390535950660706</v>
+        <v>0.9284548759460449</v>
       </c>
     </row>
     <row r="443">
@@ -5309,7 +5309,7 @@
         <v>0.9331668558981405</v>
       </c>
       <c r="C443" t="n">
-        <v>0.9379252791404724</v>
+        <v>0.9295971989631653</v>
       </c>
     </row>
     <row r="444">
@@ -5320,7 +5320,7 @@
         <v>0.9256357469917762</v>
       </c>
       <c r="C444" t="n">
-        <v>0.9399190545082092</v>
+        <v>0.9280835390090942</v>
       </c>
     </row>
     <row r="445">
@@ -5331,7 +5331,7 @@
         <v>0.9342416970091463</v>
       </c>
       <c r="C445" t="n">
-        <v>0.9386494159698486</v>
+        <v>0.9284272193908691</v>
       </c>
     </row>
     <row r="446">
@@ -5342,7 +5342,7 @@
         <v>0.9354567009012361</v>
       </c>
       <c r="C446" t="n">
-        <v>0.9406149983406067</v>
+        <v>0.9280225038528442</v>
       </c>
     </row>
     <row r="447">
@@ -5353,7 +5353,7 @@
         <v>0.941984863102527</v>
       </c>
       <c r="C447" t="n">
-        <v>0.9419903755187988</v>
+        <v>0.9285696744918823</v>
       </c>
     </row>
     <row r="448">
@@ -5364,7 +5364,7 @@
         <v>0.92502520954754</v>
       </c>
       <c r="C448" t="n">
-        <v>0.9442530274391174</v>
+        <v>0.9257031083106995</v>
       </c>
     </row>
     <row r="449">
@@ -5375,7 +5375,7 @@
         <v>0.9246270138473487</v>
       </c>
       <c r="C449" t="n">
-        <v>0.938672661781311</v>
+        <v>0.9248871803283691</v>
       </c>
     </row>
     <row r="450">
@@ -5386,7 +5386,7 @@
         <v>0.9254416831813139</v>
       </c>
       <c r="C450" t="n">
-        <v>0.9355751276016235</v>
+        <v>0.9248400330543518</v>
       </c>
     </row>
     <row r="451">
@@ -5397,7 +5397,7 @@
         <v>0.9244999059612374</v>
       </c>
       <c r="C451" t="n">
-        <v>0.9350435733795166</v>
+        <v>0.9247394800186157</v>
       </c>
     </row>
     <row r="452">
@@ -5408,7 +5408,7 @@
         <v>0.9334396098223897</v>
       </c>
       <c r="C452" t="n">
-        <v>0.9354705214500427</v>
+        <v>0.9262340068817139</v>
       </c>
     </row>
     <row r="453">
@@ -5419,7 +5419,7 @@
         <v>0.9340673193180283</v>
       </c>
       <c r="C453" t="n">
-        <v>0.9392742514610291</v>
+        <v>0.9265639781951904</v>
       </c>
     </row>
     <row r="454">
@@ -5430,7 +5430,7 @@
         <v>0.9343500111438409</v>
       </c>
       <c r="C454" t="n">
-        <v>0.9403359293937683</v>
+        <v>0.9260467886924744</v>
       </c>
     </row>
     <row r="455">
@@ -5441,7 +5441,7 @@
         <v>0.9345138910251076</v>
       </c>
       <c r="C455" t="n">
-        <v>0.9405349493026733</v>
+        <v>0.9256819486618042</v>
       </c>
     </row>
     <row r="456">
@@ -5452,7 +5452,7 @@
         <v>0.934556644867689</v>
       </c>
       <c r="C456" t="n">
-        <v>0.9406384229660034</v>
+        <v>0.9258773326873779</v>
       </c>
     </row>
     <row r="457">
@@ -5463,7 +5463,7 @@
         <v>0.9346978281409001</v>
       </c>
       <c r="C457" t="n">
-        <v>0.9409269094467163</v>
+        <v>0.9271190762519836</v>
       </c>
     </row>
     <row r="458">
@@ -5474,7 +5474,7 @@
         <v>0.9350437975990095</v>
       </c>
       <c r="C458" t="n">
-        <v>0.9412710666656494</v>
+        <v>0.9280626773834229</v>
       </c>
     </row>
     <row r="459">
@@ -5485,7 +5485,7 @@
         <v>0.934944448548925</v>
       </c>
       <c r="C459" t="n">
-        <v>0.9418261647224426</v>
+        <v>0.9290487766265869</v>
       </c>
     </row>
     <row r="460">
@@ -5496,7 +5496,7 @@
         <v>0.9347993515343898</v>
       </c>
       <c r="C460" t="n">
-        <v>0.9419631361961365</v>
+        <v>0.9293294548988342</v>
       </c>
     </row>
     <row r="461">
@@ -5507,7 +5507,7 @@
         <v>0.9347405940614617</v>
       </c>
       <c r="C461" t="n">
-        <v>0.9419631361961365</v>
+        <v>0.9296091794967651</v>
       </c>
     </row>
     <row r="462">
@@ -5518,7 +5518,7 @@
         <v>0.9345056636073135</v>
       </c>
       <c r="C462" t="n">
-        <v>0.9419631361961365</v>
+        <v>0.9295942783355713</v>
       </c>
     </row>
     <row r="463">
@@ -5529,7 +5529,7 @@
         <v>0.9343738920587373</v>
       </c>
       <c r="C463" t="n">
-        <v>0.9418556690216064</v>
+        <v>0.9295917153358459</v>
       </c>
     </row>
     <row r="464">
@@ -5540,7 +5540,7 @@
         <v>0.9342168795323017</v>
       </c>
       <c r="C464" t="n">
-        <v>0.9418237805366516</v>
+        <v>0.9295938611030579</v>
       </c>
     </row>
     <row r="465">
@@ -5551,7 +5551,7 @@
         <v>0.9341498718018056</v>
       </c>
       <c r="C465" t="n">
-        <v>0.9417521357536316</v>
+        <v>0.9295650720596313</v>
       </c>
     </row>
     <row r="466">
@@ -5562,7 +5562,7 @@
         <v>0.934076369839527</v>
       </c>
       <c r="C466" t="n">
-        <v>0.9415671825408936</v>
+        <v>0.929292619228363</v>
       </c>
     </row>
     <row r="467">
@@ -5573,7 +5573,7 @@
         <v>0.9340107060010231</v>
       </c>
       <c r="C467" t="n">
-        <v>0.9414635896682739</v>
+        <v>0.9290849566459656</v>
       </c>
     </row>
     <row r="468">
@@ -5584,7 +5584,7 @@
         <v>0.9339119414459764</v>
       </c>
       <c r="C468" t="n">
-        <v>0.9414635896682739</v>
+        <v>0.9291079044342041</v>
       </c>
     </row>
     <row r="469">
@@ -5595,7 +5595,7 @@
         <v>0.9262695270785229</v>
       </c>
       <c r="C469" t="n">
-        <v>0.9409292340278625</v>
+        <v>0.9275529384613037</v>
       </c>
     </row>
     <row r="470">
@@ -5606,7 +5606,7 @@
         <v>0.9250881751710807</v>
       </c>
       <c r="C470" t="n">
-        <v>0.9377833008766174</v>
+        <v>0.9263689517974854</v>
       </c>
     </row>
     <row r="471">
@@ -5617,7 +5617,7 @@
         <v>0.9334998145234946</v>
       </c>
       <c r="C471" t="n">
-        <v>0.9364004135131836</v>
+        <v>0.92711341381073</v>
       </c>
     </row>
     <row r="472">
@@ -5628,7 +5628,7 @@
         <v>0.9341099877779157</v>
       </c>
       <c r="C472" t="n">
-        <v>0.9394096732139587</v>
+        <v>0.9274401664733887</v>
       </c>
     </row>
     <row r="473">
@@ -5639,7 +5639,7 @@
         <v>0.9341233454964004</v>
       </c>
       <c r="C473" t="n">
-        <v>0.9407902956008911</v>
+        <v>0.9273340702056885</v>
       </c>
     </row>
     <row r="474">
@@ -5650,7 +5650,7 @@
         <v>0.9166444295028446</v>
       </c>
       <c r="C474" t="n">
-        <v>0.9398365616798401</v>
+        <v>0.9234893321990967</v>
       </c>
     </row>
     <row r="475">
@@ -5661,7 +5661,7 @@
         <v>0.9160976843359191</v>
       </c>
       <c r="C475" t="n">
-        <v>0.9333786964416504</v>
+        <v>0.9210144877433777</v>
       </c>
     </row>
     <row r="476">
@@ -5672,7 +5672,7 @@
         <v>0.9160936718209347</v>
       </c>
       <c r="C476" t="n">
-        <v>0.9295865893363953</v>
+        <v>0.9197845458984375</v>
       </c>
     </row>
     <row r="477">
@@ -5683,7 +5683,7 @@
         <v>0.9160102833811344</v>
       </c>
       <c r="C477" t="n">
-        <v>0.9286567568778992</v>
+        <v>0.9188175201416016</v>
       </c>
     </row>
     <row r="478">
@@ -5694,7 +5694,7 @@
         <v>0.9078873413207299</v>
       </c>
       <c r="C478" t="n">
-        <v>0.927864670753479</v>
+        <v>0.9154940247535706</v>
       </c>
     </row>
     <row r="479">
@@ -5705,7 +5705,7 @@
         <v>0.9243961342717152</v>
       </c>
       <c r="C479" t="n">
-        <v>0.9257705211639404</v>
+        <v>0.9173299074172974</v>
       </c>
     </row>
     <row r="480">
@@ -5716,7 +5716,7 @@
         <v>0.9250775055914825</v>
       </c>
       <c r="C480" t="n">
-        <v>0.9301243424415588</v>
+        <v>0.9165553450584412</v>
       </c>
     </row>
     <row r="481">
@@ -5727,7 +5727,7 @@
         <v>0.9242888510923145</v>
       </c>
       <c r="C481" t="n">
-        <v>0.9314587712287903</v>
+        <v>0.9156543612480164</v>
       </c>
     </row>
     <row r="482">
@@ -5738,7 +5738,7 @@
         <v>0.9078692553222961</v>
       </c>
       <c r="C482" t="n">
-        <v>0.9302623271942139</v>
+        <v>0.9116330742835999</v>
       </c>
     </row>
     <row r="483">
@@ -5749,7 +5749,7 @@
         <v>0.9078599268076983</v>
       </c>
       <c r="C483" t="n">
-        <v>0.9239389300346375</v>
+        <v>0.9103217720985413</v>
       </c>
     </row>
     <row r="484">
@@ -5760,7 +5760,7 @@
         <v>0.907863279433507</v>
       </c>
       <c r="C484" t="n">
-        <v>0.9205175042152405</v>
+        <v>0.9099125266075134</v>
       </c>
     </row>
     <row r="485">
@@ -5771,7 +5771,7 @@
         <v>0.9074388779675455</v>
       </c>
       <c r="C485" t="n">
-        <v>0.9197862148284912</v>
+        <v>0.9096224308013916</v>
       </c>
     </row>
     <row r="486">
@@ -5782,7 +5782,7 @@
         <v>0.9068267772848303</v>
       </c>
       <c r="C486" t="n">
-        <v>0.9197097420692444</v>
+        <v>0.9087989330291748</v>
       </c>
     </row>
     <row r="487">
@@ -5793,7 +5793,7 @@
         <v>0.9163830184275225</v>
       </c>
       <c r="C487" t="n">
-        <v>0.9197585582733154</v>
+        <v>0.909618616104126</v>
       </c>
     </row>
     <row r="488">
@@ -5804,7 +5804,7 @@
         <v>0.9170138814407273</v>
       </c>
       <c r="C488" t="n">
-        <v>0.9230517148971558</v>
+        <v>0.9091037511825562</v>
       </c>
     </row>
     <row r="489">
@@ -5815,7 +5815,7 @@
         <v>0.9079070019449429</v>
       </c>
       <c r="C489" t="n">
-        <v>0.9233516454696655</v>
+        <v>0.906550407409668</v>
       </c>
     </row>
     <row r="490">
@@ -5826,7 +5826,7 @@
         <v>0.8987291404555128</v>
       </c>
       <c r="C490" t="n">
-        <v>0.9189425706863403</v>
+        <v>0.9031813740730286</v>
       </c>
     </row>
     <row r="491">
@@ -5837,7 +5837,7 @@
         <v>0.8987431298467629</v>
       </c>
       <c r="C491" t="n">
-        <v>0.9138191342353821</v>
+        <v>0.9021869301795959</v>
       </c>
     </row>
     <row r="492">
@@ -5848,7 +5848,7 @@
         <v>0.8987308336451023</v>
       </c>
       <c r="C492" t="n">
-        <v>0.9116281270980835</v>
+        <v>0.9016673564910889</v>
       </c>
     </row>
     <row r="493">
@@ -5859,7 +5859,7 @@
         <v>0.8803555737246227</v>
       </c>
       <c r="C493" t="n">
-        <v>0.9098576903343201</v>
+        <v>0.8963561654090881</v>
       </c>
     </row>
     <row r="494">
@@ -5870,7 +5870,7 @@
         <v>0.880332321012715</v>
       </c>
       <c r="C494" t="n">
-        <v>0.9043630957603455</v>
+        <v>0.8929213881492615</v>
       </c>
     </row>
     <row r="495">
@@ -5881,7 +5881,7 @@
         <v>0.8987302067449677</v>
       </c>
       <c r="C495" t="n">
-        <v>0.901766836643219</v>
+        <v>0.8947915434837341</v>
       </c>
     </row>
     <row r="496">
@@ -5892,7 +5892,7 @@
         <v>0.9068602307169679</v>
       </c>
       <c r="C496" t="n">
-        <v>0.9066929221153259</v>
+        <v>0.8957663178443909</v>
       </c>
     </row>
     <row r="497">
@@ -5903,7 +5903,7 @@
         <v>0.889523496810908</v>
       </c>
       <c r="C497" t="n">
-        <v>0.9108651280403137</v>
+        <v>0.8916246891021729</v>
       </c>
     </row>
     <row r="498">
@@ -5914,7 +5914,7 @@
         <v>0.8711782747099857</v>
       </c>
       <c r="C498" t="n">
-        <v>0.9036756753921509</v>
+        <v>0.8848106861114502</v>
       </c>
     </row>
     <row r="499">
@@ -5925,7 +5925,7 @@
         <v>0.8711527010527841</v>
       </c>
       <c r="C499" t="n">
-        <v>0.8942626118659973</v>
+        <v>0.8813114762306213</v>
       </c>
     </row>
     <row r="500">
@@ -5936,7 +5936,7 @@
         <v>0.8711680306057458</v>
       </c>
       <c r="C500" t="n">
-        <v>0.8890812397003174</v>
+        <v>0.8800270557403564</v>
       </c>
     </row>
     <row r="501">
@@ -5947,7 +5947,7 @@
         <v>0.8711967972223283</v>
       </c>
       <c r="C501" t="n">
-        <v>0.887999415397644</v>
+        <v>0.8792047500610352</v>
       </c>
     </row>
     <row r="502">
@@ -5958,7 +5958,7 @@
         <v>0.8711803429506728</v>
       </c>
       <c r="C502" t="n">
-        <v>0.8879958987236023</v>
+        <v>0.8776406049728394</v>
       </c>
     </row>
     <row r="503">
@@ -5969,7 +5969,7 @@
         <v>0.8895333870961856</v>
       </c>
       <c r="C503" t="n">
-        <v>0.8887165188789368</v>
+        <v>0.879815399646759</v>
       </c>
     </row>
     <row r="504">
@@ -5980,7 +5980,7 @@
         <v>0.8977800557693958</v>
       </c>
       <c r="C504" t="n">
-        <v>0.8951541185379028</v>
+        <v>0.880381166934967</v>
       </c>
     </row>
     <row r="505">
@@ -5991,7 +5991,7 @@
         <v>0.8980756709439232</v>
       </c>
       <c r="C505" t="n">
-        <v>0.901461660861969</v>
+        <v>0.8804501295089722</v>
       </c>
     </row>
     <row r="506">
@@ -6002,7 +6002,7 @@
         <v>0.8983429355253587</v>
       </c>
       <c r="C506" t="n">
-        <v>0.9037212729454041</v>
+        <v>0.8816991448402405</v>
       </c>
     </row>
     <row r="507">
@@ -6013,7 +6013,7 @@
         <v>0.8986076975883235</v>
       </c>
       <c r="C507" t="n">
-        <v>0.9046228528022766</v>
+        <v>0.8843272924423218</v>
       </c>
     </row>
     <row r="508">
@@ -6024,7 +6024,7 @@
         <v>0.8987548897506132</v>
       </c>
       <c r="C508" t="n">
-        <v>0.9053186178207397</v>
+        <v>0.887491762638092</v>
       </c>
     </row>
     <row r="509">
@@ -6035,7 +6035,7 @@
         <v>0.8987646445606167</v>
       </c>
       <c r="C509" t="n">
-        <v>0.9061969518661499</v>
+        <v>0.8909016847610474</v>
       </c>
     </row>
     <row r="510">
@@ -6046,7 +6046,7 @@
         <v>0.8987509704010407</v>
       </c>
       <c r="C510" t="n">
-        <v>0.9068890810012817</v>
+        <v>0.8933978676795959</v>
       </c>
     </row>
     <row r="511">
@@ -6057,7 +6057,7 @@
         <v>0.898758281652376</v>
       </c>
       <c r="C511" t="n">
-        <v>0.9073270559310913</v>
+        <v>0.8947232961654663</v>
       </c>
     </row>
     <row r="512">
@@ -6068,7 +6068,7 @@
         <v>0.8987365778776639</v>
       </c>
       <c r="C512" t="n">
-        <v>0.9076155424118042</v>
+        <v>0.8951714038848877</v>
       </c>
     </row>
     <row r="513">
@@ -6079,7 +6079,7 @@
         <v>0.8987792661903926</v>
       </c>
       <c r="C513" t="n">
-        <v>0.9077537655830383</v>
+        <v>0.8951953649520874</v>
       </c>
     </row>
     <row r="514">
@@ -6090,7 +6090,7 @@
         <v>0.8987339213944751</v>
       </c>
       <c r="C514" t="n">
-        <v>0.9077856540679932</v>
+        <v>0.8952305912971497</v>
       </c>
     </row>
     <row r="515">
@@ -6101,7 +6101,7 @@
         <v>0.8985659675668618</v>
       </c>
       <c r="C515" t="n">
-        <v>0.9078572988510132</v>
+        <v>0.8952286243438721</v>
       </c>
     </row>
     <row r="516">
@@ -6112,7 +6112,7 @@
         <v>0.8986215654355665</v>
       </c>
       <c r="C516" t="n">
-        <v>0.9077856540679932</v>
+        <v>0.8952362537384033</v>
       </c>
     </row>
     <row r="517">
@@ -6123,7 +6123,7 @@
         <v>0.8986213280992978</v>
       </c>
       <c r="C517" t="n">
-        <v>0.9077856540679932</v>
+        <v>0.8952327966690063</v>
       </c>
     </row>
     <row r="518">
@@ -6134,7 +6134,7 @@
         <v>0.8986421281635526</v>
       </c>
       <c r="C518" t="n">
-        <v>0.9077856540679932</v>
+        <v>0.8952400088310242</v>
       </c>
     </row>
     <row r="519">
@@ -6145,7 +6145,7 @@
         <v>0.8803360563007161</v>
       </c>
       <c r="C519" t="n">
-        <v>0.9064379334449768</v>
+        <v>0.890905499458313</v>
       </c>
     </row>
     <row r="520">
@@ -6156,7 +6156,7 @@
         <v>0.8711757493394716</v>
       </c>
       <c r="C520" t="n">
-        <v>0.8992336392402649</v>
+        <v>0.8862120509147644</v>
       </c>
     </row>
     <row r="521">
@@ -6167,7 +6167,7 @@
         <v>0.8892857327536372</v>
       </c>
       <c r="C521" t="n">
-        <v>0.8945653438568115</v>
+        <v>0.8884431123733521</v>
       </c>
     </row>
     <row r="522">
@@ -6178,7 +6178,7 @@
         <v>0.7608341285837117</v>
       </c>
       <c r="C522" t="n">
-        <v>0.8903094530105591</v>
+        <v>0.8567773103713989</v>
       </c>
     </row>
     <row r="523">
@@ -6189,7 +6189,7 @@
         <v>0.8895915161106582</v>
       </c>
       <c r="C523" t="n">
-        <v>0.892298698425293</v>
+        <v>0.8752235770225525</v>
       </c>
     </row>
     <row r="524">
@@ -6200,7 +6200,7 @@
         <v>0.8712427854590916</v>
       </c>
       <c r="C524" t="n">
-        <v>0.8939563035964966</v>
+        <v>0.873756468296051</v>
       </c>
     </row>
     <row r="525">
@@ -6211,7 +6211,7 @@
         <v>0.8620597065261462</v>
       </c>
       <c r="C525" t="n">
-        <v>0.8887045383453369</v>
+        <v>0.8686851859092712</v>
       </c>
     </row>
     <row r="526">
@@ -6222,7 +6222,7 @@
         <v>0.8620221531592986</v>
       </c>
       <c r="C526" t="n">
-        <v>0.8815482258796692</v>
+        <v>0.8639759421348572</v>
       </c>
     </row>
     <row r="527">
@@ -6233,7 +6233,7 @@
         <v>0.8620267358705903</v>
       </c>
       <c r="C527" t="n">
-        <v>0.8780838251113892</v>
+        <v>0.8614571094512939</v>
       </c>
     </row>
     <row r="528">
@@ -6244,7 +6244,7 @@
         <v>0.8528411287701776</v>
       </c>
       <c r="C528" t="n">
-        <v>0.8758845925331116</v>
+        <v>0.8593459725379944</v>
       </c>
     </row>
     <row r="529">
@@ -6255,7 +6255,7 @@
         <v>0.8620071249350578</v>
       </c>
       <c r="C529" t="n">
-        <v>0.8731440901756287</v>
+        <v>0.8610919117927551</v>
       </c>
     </row>
     <row r="530">
@@ -6266,7 +6266,7 @@
         <v>0.8712026089034963</v>
       </c>
       <c r="C530" t="n">
-        <v>0.8747496008872986</v>
+        <v>0.8631589412689209</v>
       </c>
     </row>
     <row r="531">
@@ -6277,7 +6277,7 @@
         <v>0.8803418331389499</v>
       </c>
       <c r="C531" t="n">
-        <v>0.8792714476585388</v>
+        <v>0.867096483707428</v>
       </c>
     </row>
     <row r="532">
@@ -6288,7 +6288,7 @@
         <v>0.8620129796929624</v>
       </c>
       <c r="C532" t="n">
-        <v>0.8832796812057495</v>
+        <v>0.8634712696075439</v>
       </c>
     </row>
     <row r="533">
@@ -6299,7 +6299,7 @@
         <v>0.8528179172249519</v>
       </c>
       <c r="C533" t="n">
-        <v>0.8766148686408997</v>
+        <v>0.8598126769065857</v>
       </c>
     </row>
     <row r="534">
@@ -6310,7 +6310,7 @@
         <v>0.8436645017261012</v>
       </c>
       <c r="C534" t="n">
-        <v>0.8690439462661743</v>
+        <v>0.856243908405304</v>
       </c>
     </row>
     <row r="535">
@@ -6321,7 +6321,7 @@
         <v>0.8798508554784722</v>
       </c>
       <c r="C535" t="n">
-        <v>0.8678272366523743</v>
+        <v>0.8642580509185791</v>
       </c>
     </row>
     <row r="536">
@@ -6332,7 +6332,7 @@
         <v>0.862053064780495</v>
       </c>
       <c r="C536" t="n">
-        <v>0.8804106712341309</v>
+        <v>0.8638461828231812</v>
       </c>
     </row>
     <row r="537">
@@ -6343,7 +6343,7 @@
         <v>0.8620531006339325</v>
       </c>
       <c r="C537" t="n">
-        <v>0.8775544762611389</v>
+        <v>0.8629338145256042</v>
       </c>
     </row>
     <row r="538">
@@ -6354,7 +6354,7 @@
         <v>0.8620380633597068</v>
       </c>
       <c r="C538" t="n">
-        <v>0.8746523857116699</v>
+        <v>0.8614029288291931</v>
       </c>
     </row>
     <row r="539">
@@ -6365,7 +6365,7 @@
         <v>0.8797623105551132</v>
       </c>
       <c r="C539" t="n">
-        <v>0.8749952912330627</v>
+        <v>0.864190399646759</v>
       </c>
     </row>
     <row r="540">
@@ -6376,7 +6376,7 @@
         <v>0.8803974917235913</v>
       </c>
       <c r="C540" t="n">
-        <v>0.8833662271499634</v>
+        <v>0.8665871024131775</v>
       </c>
     </row>
     <row r="541">
@@ -6387,7 +6387,7 @@
         <v>0.8620180403067136</v>
       </c>
       <c r="C541" t="n">
-        <v>0.8852991461753845</v>
+        <v>0.8652214407920837</v>
       </c>
     </row>
     <row r="542">
@@ -6398,7 +6398,7 @@
         <v>0.8528447492305936</v>
       </c>
       <c r="C542" t="n">
-        <v>0.8783212304115295</v>
+        <v>0.8621945381164551</v>
       </c>
     </row>
     <row r="543">
@@ -6409,7 +6409,7 @@
         <v>0.8528151470560087</v>
       </c>
       <c r="C543" t="n">
-        <v>0.8713616132736206</v>
+        <v>0.860971987247467</v>
       </c>
     </row>
     <row r="544">
@@ -6420,7 +6420,7 @@
         <v>0.8436696505486406</v>
       </c>
       <c r="C544" t="n">
-        <v>0.867569625377655</v>
+        <v>0.8576620221138</v>
       </c>
     </row>
     <row r="545">
@@ -6431,7 +6431,7 @@
         <v>0.8436629345688308</v>
       </c>
       <c r="C545" t="n">
-        <v>0.8648731112480164</v>
+        <v>0.8561233878135681</v>
       </c>
     </row>
     <row r="546">
@@ -6442,7 +6442,7 @@
         <v>0.8528169781421857</v>
       </c>
       <c r="C546" t="n">
-        <v>0.864429235458374</v>
+        <v>0.8560232520103455</v>
       </c>
     </row>
     <row r="547">
@@ -6453,7 +6453,7 @@
         <v>0.8620191299938703</v>
       </c>
       <c r="C547" t="n">
-        <v>0.8666464686393738</v>
+        <v>0.8567474484443665</v>
       </c>
     </row>
     <row r="548">
@@ -6464,7 +6464,7 @@
         <v>0.8620302839533345</v>
       </c>
       <c r="C548" t="n">
-        <v>0.8698431253433228</v>
+        <v>0.855515718460083</v>
       </c>
     </row>
     <row r="549">
@@ -6475,7 +6475,7 @@
         <v>0.8528370350119656</v>
       </c>
       <c r="C549" t="n">
-        <v>0.8697638511657715</v>
+        <v>0.8524672985076904</v>
       </c>
     </row>
     <row r="550">
@@ -6486,7 +6486,7 @@
         <v>0.8344857921587095</v>
       </c>
       <c r="C550" t="n">
-        <v>0.8641908168792725</v>
+        <v>0.8470805883407593</v>
       </c>
     </row>
     <row r="551">
@@ -6497,7 +6497,7 @@
         <v>0.8344826660144808</v>
       </c>
       <c r="C551" t="n">
-        <v>0.8565244078636169</v>
+        <v>0.8450557589530945</v>
       </c>
     </row>
     <row r="552">
@@ -6508,7 +6508,7 @@
         <v>0.8344810222180467</v>
       </c>
       <c r="C552" t="n">
-        <v>0.8525462746620178</v>
+        <v>0.8443498015403748</v>
       </c>
     </row>
     <row r="553">
@@ -6519,7 +6519,7 @@
         <v>0.8344658756214602</v>
       </c>
       <c r="C553" t="n">
-        <v>0.851757824420929</v>
+        <v>0.8435212969779968</v>
       </c>
     </row>
     <row r="554">
@@ -6530,7 +6530,7 @@
         <v>0.8344646989504457</v>
       </c>
       <c r="C554" t="n">
-        <v>0.8513286709785461</v>
+        <v>0.8417466878890991</v>
       </c>
     </row>
     <row r="555">
@@ -6541,7 +6541,7 @@
         <v>0.852840276497965</v>
       </c>
       <c r="C555" t="n">
-        <v>0.8523257374763489</v>
+        <v>0.8438745737075806</v>
       </c>
     </row>
     <row r="556">
@@ -6552,7 +6552,7 @@
         <v>0.8528441030800163</v>
       </c>
       <c r="C556" t="n">
-        <v>0.8586360216140747</v>
+        <v>0.8436996340751648</v>
       </c>
     </row>
     <row r="557">
@@ -6563,7 +6563,7 @@
         <v>0.8344872896489391</v>
       </c>
       <c r="C557" t="n">
-        <v>0.8587449789047241</v>
+        <v>0.8394958972930908</v>
       </c>
     </row>
     <row r="558">
@@ -6574,7 +6574,7 @@
         <v>0.8344778768513144</v>
       </c>
       <c r="C558" t="n">
-        <v>0.8523231148719788</v>
+        <v>0.8375915288925171</v>
       </c>
     </row>
     <row r="559">
@@ -6585,7 +6585,7 @@
         <v>0.8344957641154368</v>
       </c>
       <c r="C559" t="n">
-        <v>0.848618745803833</v>
+        <v>0.8378093242645264</v>
       </c>
     </row>
     <row r="560">
@@ -6596,7 +6596,7 @@
         <v>0.8344951795576893</v>
       </c>
       <c r="C560" t="n">
-        <v>0.8476399183273315</v>
+        <v>0.8384110331535339</v>
       </c>
     </row>
     <row r="561">
@@ -6607,7 +6607,7 @@
         <v>0.8344753672037024</v>
       </c>
       <c r="C561" t="n">
-        <v>0.8477659821510315</v>
+        <v>0.838539719581604</v>
       </c>
     </row>
     <row r="562">
@@ -6618,7 +6618,7 @@
         <v>0.8253201415701708</v>
       </c>
       <c r="C562" t="n">
-        <v>0.8468105792999268</v>
+        <v>0.8352683186531067</v>
       </c>
     </row>
     <row r="563">
@@ -6629,7 +6629,7 @@
         <v>0.8436784693405561</v>
       </c>
       <c r="C563" t="n">
-        <v>0.845090925693512</v>
+        <v>0.8376364707946777</v>
       </c>
     </row>
     <row r="564">
@@ -6640,7 +6640,7 @@
         <v>0.8436509177088495</v>
       </c>
       <c r="C564" t="n">
-        <v>0.8504129648208618</v>
+        <v>0.8378400206565857</v>
       </c>
     </row>
     <row r="565">
@@ -6651,7 +6651,7 @@
         <v>0.8436515879412263</v>
       </c>
       <c r="C565" t="n">
-        <v>0.8526353240013123</v>
+        <v>0.8379079103469849</v>
       </c>
     </row>
     <row r="566">
@@ -6662,7 +6662,7 @@
         <v>0.8253073812679254</v>
       </c>
       <c r="C566" t="n">
-        <v>0.8509984612464905</v>
+        <v>0.8342933654785156</v>
       </c>
     </row>
     <row r="567">
@@ -6673,7 +6673,7 @@
         <v>0.8253066740137166</v>
       </c>
       <c r="C567" t="n">
-        <v>0.8443651795387268</v>
+        <v>0.8325522541999817</v>
       </c>
     </row>
     <row r="568">
@@ -6684,7 +6684,7 @@
         <v>0.8253308873899826</v>
       </c>
       <c r="C568" t="n">
-        <v>0.8400235176086426</v>
+        <v>0.8319794535636902</v>
       </c>
     </row>
     <row r="569">
@@ -6695,7 +6695,7 @@
         <v>0.8253323869721151</v>
       </c>
       <c r="C569" t="n">
-        <v>0.8390524387359619</v>
+        <v>0.8316993117332458</v>
       </c>
     </row>
     <row r="570">
@@ -6706,7 +6706,7 @@
         <v>0.8253212046242392</v>
       </c>
       <c r="C570" t="n">
-        <v>0.8389983177185059</v>
+        <v>0.830766499042511</v>
       </c>
     </row>
     <row r="571">
@@ -6717,7 +6717,7 @@
         <v>0.8345055651178331</v>
       </c>
       <c r="C571" t="n">
-        <v>0.8396867513656616</v>
+        <v>0.8318808078765869</v>
       </c>
     </row>
     <row r="572">
@@ -6728,7 +6728,7 @@
         <v>0.843689760971289</v>
       </c>
       <c r="C572" t="n">
-        <v>0.8441972136497498</v>
+        <v>0.8334449529647827</v>
       </c>
     </row>
     <row r="573">
@@ -6739,7 +6739,7 @@
         <v>0.8436744512433993</v>
       </c>
       <c r="C573" t="n">
-        <v>0.8498095870018005</v>
+        <v>0.8340367674827576</v>
       </c>
     </row>
     <row r="574">
@@ -6750,7 +6750,7 @@
         <v>0.8436731791463229</v>
       </c>
       <c r="C574" t="n">
-        <v>0.8517618179321289</v>
+        <v>0.8349267840385437</v>
       </c>
     </row>
     <row r="575">
@@ -6761,7 +6761,7 @@
         <v>0.8436776008793535</v>
       </c>
       <c r="C575" t="n">
-        <v>0.8525676131248474</v>
+        <v>0.8364698886871338</v>
       </c>
     </row>
     <row r="576">
@@ -6772,7 +6772,7 @@
         <v>0.8436673128527294</v>
       </c>
       <c r="C576" t="n">
-        <v>0.8528376817703247</v>
+        <v>0.8383826613426208</v>
       </c>
     </row>
     <row r="577">
@@ -6783,7 +6783,7 @@
         <v>0.8436749394862217</v>
       </c>
       <c r="C577" t="n">
-        <v>0.8533732295036316</v>
+        <v>0.8404118418693542</v>
       </c>
     </row>
     <row r="578">
@@ -6794,7 +6794,7 @@
         <v>0.8436718130330163</v>
       </c>
       <c r="C578" t="n">
-        <v>0.8539384007453918</v>
+        <v>0.8420304656028748</v>
       </c>
     </row>
     <row r="579">
@@ -6805,7 +6805,7 @@
         <v>0.8436944679828092</v>
       </c>
       <c r="C579" t="n">
-        <v>0.8544023036956787</v>
+        <v>0.8430134057998657</v>
       </c>
     </row>
     <row r="580">
@@ -6816,7 +6816,7 @@
         <v>0.8436827440190545</v>
       </c>
       <c r="C580" t="n">
-        <v>0.8547083735466003</v>
+        <v>0.8432484865188599</v>
       </c>
     </row>
     <row r="581">
@@ -6827,7 +6827,7 @@
         <v>0.8436933854045741</v>
       </c>
       <c r="C581" t="n">
-        <v>0.8547600507736206</v>
+        <v>0.8432270288467407</v>
       </c>
     </row>
     <row r="582">
@@ -6838,7 +6838,7 @@
         <v>0.8436813270745215</v>
       </c>
       <c r="C582" t="n">
-        <v>0.8548118472099304</v>
+        <v>0.8433290123939514</v>
       </c>
     </row>
     <row r="583">
@@ -6849,7 +6849,7 @@
         <v>0.8436809121398088</v>
       </c>
       <c r="C583" t="n">
-        <v>0.854863703250885</v>
+        <v>0.8433290123939514</v>
       </c>
     </row>
     <row r="584">
@@ -6860,7 +6860,7 @@
         <v>0.843716232955935</v>
       </c>
       <c r="C584" t="n">
-        <v>0.854863703250885</v>
+        <v>0.8433270454406738</v>
       </c>
     </row>
     <row r="585">
@@ -6871,7 +6871,7 @@
         <v>0.8345061040433274</v>
       </c>
       <c r="C585" t="n">
-        <v>0.8537601828575134</v>
+        <v>0.8410422205924988</v>
       </c>
     </row>
     <row r="586">
@@ -6882,7 +6882,7 @@
         <v>0.82533273910078</v>
       </c>
       <c r="C586" t="n">
-        <v>0.8493266701698303</v>
+        <v>0.8373663425445557</v>
       </c>
     </row>
     <row r="587">
@@ -6893,7 +6893,7 @@
         <v>0.8253112545026481</v>
       </c>
       <c r="C587" t="n">
-        <v>0.8440799117088318</v>
+        <v>0.8352672457695007</v>
       </c>
     </row>
     <row r="588">
@@ -6904,7 +6904,7 @@
         <v>0.8431836088832474</v>
       </c>
       <c r="C588" t="n">
-        <v>0.8437160849571228</v>
+        <v>0.8385283946990967</v>
       </c>
     </row>
     <row r="589">
@@ -6915,7 +6915,7 @@
         <v>0.843130257595134</v>
       </c>
       <c r="C589" t="n">
-        <v>0.8504400849342346</v>
+        <v>0.8391959667205811</v>
       </c>
     </row>
     <row r="590">
@@ -6926,7 +6926,7 @@
         <v>0.8253315580120563</v>
       </c>
       <c r="C590" t="n">
-        <v>0.8507456183433533</v>
+        <v>0.8346837759017944</v>
       </c>
     </row>
     <row r="591">
@@ -6937,7 +6937,7 @@
         <v>0.8161485137053894</v>
       </c>
       <c r="C591" t="n">
-        <v>0.8430679440498352</v>
+        <v>0.8291974067687988</v>
       </c>
     </row>
     <row r="592">
@@ -6948,7 +6948,7 @@
         <v>0.8161696648188058</v>
       </c>
       <c r="C592" t="n">
-        <v>0.8350578546524048</v>
+        <v>0.8265930414199829</v>
       </c>
     </row>
     <row r="593">
@@ -6959,7 +6959,7 @@
         <v>0.8161623181008582</v>
       </c>
       <c r="C593" t="n">
-        <v>0.8314677476882935</v>
+        <v>0.8255062103271484</v>
       </c>
     </row>
     <row r="594">
@@ -6970,7 +6970,7 @@
         <v>0.8069858213008714</v>
       </c>
       <c r="C594" t="n">
-        <v>0.8293402194976807</v>
+        <v>0.8222088217735291</v>
       </c>
     </row>
     <row r="595">
@@ -6981,7 +6981,7 @@
         <v>0.8069828526025751</v>
       </c>
       <c r="C595" t="n">
-        <v>0.8258715271949768</v>
+        <v>0.819235622882843</v>
       </c>
     </row>
     <row r="596">
@@ -6992,7 +6992,7 @@
         <v>0.8161661643741751</v>
       </c>
       <c r="C596" t="n">
-        <v>0.8238210678100586</v>
+        <v>0.8187422156333923</v>
       </c>
     </row>
     <row r="597">
@@ -7003,7 +7003,7 @@
         <v>0.8249451602472205</v>
       </c>
       <c r="C597" t="n">
-        <v>0.8262125849723816</v>
+        <v>0.8194692134857178</v>
       </c>
     </row>
     <row r="598">
@@ -7014,7 +7014,7 @@
         <v>0.8250326964594586</v>
       </c>
       <c r="C598" t="n">
-        <v>0.8307185173034668</v>
+        <v>0.8192260265350342</v>
       </c>
     </row>
     <row r="599">
@@ -7025,7 +7025,7 @@
         <v>0.8070011377709213</v>
       </c>
       <c r="C599" t="n">
-        <v>0.8300942778587341</v>
+        <v>0.8151589035987854</v>
       </c>
     </row>
     <row r="600">
@@ -7036,7 +7036,7 @@
         <v>0.7978375177548369</v>
       </c>
       <c r="C600" t="n">
-        <v>0.8215781450271606</v>
+        <v>0.8110455274581909</v>
       </c>
     </row>
     <row r="601">
@@ -7047,7 +7047,7 @@
         <v>0.7978331893282931</v>
       </c>
       <c r="C601" t="n">
-        <v>0.8141162991523743</v>
+        <v>0.809332549571991</v>
       </c>
     </row>
     <row r="602">
@@ -7058,7 +7058,7 @@
         <v>0.7978427981545247</v>
       </c>
       <c r="C602" t="n">
-        <v>0.8110713362693787</v>
+        <v>0.808687150478363</v>
       </c>
     </row>
     <row r="603">
@@ -7069,7 +7069,7 @@
         <v>0.7978349974040868</v>
       </c>
       <c r="C603" t="n">
-        <v>0.8105817437171936</v>
+        <v>0.8074274063110352</v>
       </c>
     </row>
     <row r="604">
@@ -7080,7 +7080,7 @@
         <v>0.8070196465727095</v>
       </c>
       <c r="C604" t="n">
-        <v>0.8115895986557007</v>
+        <v>0.8080951571464539</v>
       </c>
     </row>
     <row r="605">
@@ -7091,7 +7091,7 @@
         <v>0.8157832221777528</v>
       </c>
       <c r="C605" t="n">
-        <v>0.8152683973312378</v>
+        <v>0.8091245889663696</v>
       </c>
     </row>
     <row r="606">
@@ -7102,7 +7102,7 @@
         <v>0.807012414334848</v>
       </c>
       <c r="C606" t="n">
-        <v>0.8186083436012268</v>
+        <v>0.8071032166481018</v>
       </c>
     </row>
     <row r="607">
@@ -7113,7 +7113,7 @@
         <v>0.7886600520390702</v>
       </c>
       <c r="C607" t="n">
-        <v>0.8133304715156555</v>
+        <v>0.8014618754386902</v>
       </c>
     </row>
     <row r="608">
@@ -7124,7 +7124,7 @@
         <v>0.7886692062304341</v>
       </c>
       <c r="C608" t="n">
-        <v>0.8053790926933289</v>
+        <v>0.7992053031921387</v>
       </c>
     </row>
     <row r="609">
@@ -7135,7 +7135,7 @@
         <v>0.7978226612100521</v>
       </c>
       <c r="C609" t="n">
-        <v>0.8027344942092896</v>
+        <v>0.8011309504508972</v>
       </c>
     </row>
     <row r="610">
@@ -7146,7 +7146,7 @@
         <v>0.7886567538699819</v>
       </c>
       <c r="C610" t="n">
-        <v>0.8035053014755249</v>
+        <v>0.7994967699050903</v>
       </c>
     </row>
     <row r="611">
@@ -7157,7 +7157,7 @@
         <v>0.7886770297053252</v>
       </c>
       <c r="C611" t="n">
-        <v>0.8016480207443237</v>
+        <v>0.7980096936225891</v>
       </c>
     </row>
     <row r="612">
@@ -7168,7 +7168,7 @@
         <v>0.7978662708600095</v>
       </c>
       <c r="C612" t="n">
-        <v>0.8013755083084106</v>
+        <v>0.7982056140899658</v>
       </c>
     </row>
     <row r="613">
@@ -7179,7 +7179,7 @@
         <v>0.8070166691375142</v>
       </c>
       <c r="C613" t="n">
-        <v>0.8049197793006897</v>
+        <v>0.7999850511550903</v>
       </c>
     </row>
     <row r="614">
@@ -7190,7 +7190,7 @@
         <v>0.7886579650042324</v>
       </c>
       <c r="C614" t="n">
-        <v>0.8069561123847961</v>
+        <v>0.7962760329246521</v>
       </c>
     </row>
     <row r="615">
@@ -7201,7 +7201,7 @@
         <v>0.788654468829129</v>
       </c>
       <c r="C615" t="n">
-        <v>0.8019049167633057</v>
+        <v>0.7945852875709534</v>
       </c>
     </row>
     <row r="616">
@@ -7212,7 +7212,7 @@
         <v>0.788669206346389</v>
       </c>
       <c r="C616" t="n">
-        <v>0.7984880805015564</v>
+        <v>0.7939916253089905</v>
       </c>
     </row>
     <row r="617">
@@ -7223,7 +7223,7 @@
         <v>0.7886785412566182</v>
       </c>
       <c r="C617" t="n">
-        <v>0.7973959445953369</v>
+        <v>0.7941399812698364</v>
       </c>
     </row>
     <row r="618">
@@ -7234,7 +7234,7 @@
         <v>0.7886457816851185</v>
       </c>
       <c r="C618" t="n">
-        <v>0.7971810102462769</v>
+        <v>0.7939784526824951</v>
       </c>
     </row>
     <row r="619">
@@ -7245,7 +7245,7 @@
         <v>0.7978579563404109</v>
       </c>
       <c r="C619" t="n">
-        <v>0.7988848686218262</v>
+        <v>0.7957391142845154</v>
       </c>
     </row>
     <row r="620">
@@ -7256,7 +7256,7 @@
         <v>0.807015251277107</v>
       </c>
       <c r="C620" t="n">
-        <v>0.8038409948348999</v>
+        <v>0.7984559535980225</v>
       </c>
     </row>
     <row r="621">
@@ -7267,7 +7267,7 @@
         <v>0.8070173335128888</v>
       </c>
       <c r="C621" t="n">
-        <v>0.809350848197937</v>
+        <v>0.7997936010360718</v>
       </c>
     </row>
     <row r="622">
@@ -7278,7 +7278,7 @@
         <v>0.8070300174105234</v>
       </c>
       <c r="C622" t="n">
-        <v>0.8115070462226868</v>
+        <v>0.8008326292037964</v>
       </c>
     </row>
     <row r="623">
@@ -7289,7 +7289,7 @@
         <v>0.8070093213044306</v>
       </c>
       <c r="C623" t="n">
-        <v>0.8122822046279907</v>
+        <v>0.8021671175956726</v>
       </c>
     </row>
     <row r="624">
@@ -7300,7 +7300,7 @@
         <v>0.8070401124735802</v>
       </c>
       <c r="C624" t="n">
-        <v>0.8129088878631592</v>
+        <v>0.8041235208511353</v>
       </c>
     </row>
     <row r="625">
@@ -7311,7 +7311,7 @@
         <v>0.8070231110878758</v>
       </c>
       <c r="C625" t="n">
-        <v>0.8134556412696838</v>
+        <v>0.8058540225028992</v>
       </c>
     </row>
     <row r="626">
@@ -7322,7 +7322,7 @@
         <v>0.8070325058532244</v>
       </c>
       <c r="C626" t="n">
-        <v>0.8140159845352173</v>
+        <v>0.8072776794433594</v>
       </c>
     </row>
     <row r="627">
@@ -7333,7 +7333,7 @@
         <v>0.8070432358170097</v>
       </c>
       <c r="C627" t="n">
-        <v>0.8144763112068176</v>
+        <v>0.8082994818687439</v>
       </c>
     </row>
     <row r="628">
@@ -7344,7 +7344,7 @@
         <v>0.8070390164163161</v>
       </c>
       <c r="C628" t="n">
-        <v>0.8147451877593994</v>
+        <v>0.8083092570304871</v>
       </c>
     </row>
     <row r="629">
@@ -7355,7 +7355,7 @@
         <v>0.8070374788754205</v>
       </c>
       <c r="C629" t="n">
-        <v>0.8149071335792542</v>
+        <v>0.8083092570304871</v>
       </c>
     </row>
     <row r="630">
@@ -7366,7 +7366,7 @@
         <v>0.8070161537107918</v>
       </c>
       <c r="C630" t="n">
-        <v>0.814958930015564</v>
+        <v>0.8083077669143677</v>
       </c>
     </row>
     <row r="631">
@@ -7377,7 +7377,7 @@
         <v>0.8070173102852599</v>
       </c>
       <c r="C631" t="n">
-        <v>0.8149749040603638</v>
+        <v>0.8083092570304871</v>
       </c>
     </row>
     <row r="632">
@@ -7388,7 +7388,7 @@
         <v>0.7886095544786196</v>
       </c>
       <c r="C632" t="n">
-        <v>0.8121122717857361</v>
+        <v>0.8037829995155334</v>
       </c>
     </row>
     <row r="633">
@@ -7399,7 +7399,7 @@
         <v>0.779446797487339</v>
       </c>
       <c r="C633" t="n">
-        <v>0.8041762709617615</v>
+        <v>0.7989873886108398</v>
       </c>
     </row>
     <row r="634">
@@ -7410,7 +7410,7 @@
         <v>0.7794452611283115</v>
       </c>
       <c r="C634" t="n">
-        <v>0.7975139617919922</v>
+        <v>0.7958713173866272</v>
       </c>
     </row>
     <row r="635">
@@ -7421,7 +7421,7 @@
         <v>0.7886224925416369</v>
       </c>
       <c r="C635" t="n">
-        <v>0.7959306240081787</v>
+        <v>0.7960624694824219</v>
       </c>
     </row>
     <row r="636">
@@ -7432,7 +7432,7 @@
         <v>0.7886381944513093</v>
       </c>
       <c r="C636" t="n">
-        <v>0.7974091768264771</v>
+        <v>0.7949733138084412</v>
       </c>
     </row>
     <row r="637">
@@ -7443,7 +7443,7 @@
         <v>0.7794447800670674</v>
       </c>
       <c r="C637" t="n">
-        <v>0.7962895631790161</v>
+        <v>0.7909438014030457</v>
       </c>
     </row>
     <row r="638">
@@ -7454,7 +7454,7 @@
         <v>0.7702779525620963</v>
       </c>
       <c r="C638" t="n">
-        <v>0.7906683087348938</v>
+        <v>0.7852309942245483</v>
       </c>
     </row>
     <row r="639">
@@ -7465,7 +7465,7 @@
         <v>0.7702825934213096</v>
       </c>
       <c r="C639" t="n">
-        <v>0.784803032875061</v>
+        <v>0.7819024324417114</v>
       </c>
     </row>
     <row r="640">
@@ -7476,7 +7476,7 @@
         <v>0.7702795183933456</v>
       </c>
       <c r="C640" t="n">
-        <v>0.7816357612609863</v>
+        <v>0.7801972627639771</v>
       </c>
     </row>
     <row r="641">
@@ -7487,7 +7487,7 @@
         <v>0.7702855859698761</v>
       </c>
       <c r="C641" t="n">
-        <v>0.780706524848938</v>
+        <v>0.7792065143585205</v>
       </c>
     </row>
     <row r="642">
@@ -7498,7 +7498,7 @@
         <v>0.7702932572646838</v>
       </c>
       <c r="C642" t="n">
-        <v>0.7801315188407898</v>
+        <v>0.7780201435089111</v>
       </c>
     </row>
     <row r="643">
@@ -7509,7 +7509,7 @@
         <v>0.7794687854650256</v>
       </c>
       <c r="C643" t="n">
-        <v>0.7811784148216248</v>
+        <v>0.7788446545600891</v>
       </c>
     </row>
     <row r="644">
@@ -7520,7 +7520,7 @@
         <v>0.7794598323000035</v>
       </c>
       <c r="C644" t="n">
-        <v>0.7834630608558655</v>
+        <v>0.7788439989089966</v>
       </c>
     </row>
     <row r="645">
@@ -7531,7 +7531,7 @@
         <v>0.7794783482328264</v>
       </c>
       <c r="C645" t="n">
-        <v>0.7846826910972595</v>
+        <v>0.7790073752403259</v>
       </c>
     </row>
     <row r="646">
@@ -7542,7 +7542,7 @@
         <v>0.7702965033427306</v>
       </c>
       <c r="C646" t="n">
-        <v>0.7833022475242615</v>
+        <v>0.7772521376609802</v>
       </c>
     </row>
     <row r="647">
@@ -7553,7 +7553,7 @@
         <v>0.7611258502328907</v>
       </c>
       <c r="C647" t="n">
-        <v>0.7786069512367249</v>
+        <v>0.7745053172111511</v>
       </c>
     </row>
     <row r="648">
@@ -7564,7 +7564,7 @@
         <v>0.7611186525259319</v>
       </c>
       <c r="C648" t="n">
-        <v>0.7741600275039673</v>
+        <v>0.7732527256011963</v>
       </c>
     </row>
     <row r="649">
@@ -7575,7 +7575,7 @@
         <v>0.7611170063267553</v>
       </c>
       <c r="C649" t="n">
-        <v>0.7721158266067505</v>
+        <v>0.7724356055259705</v>
       </c>
     </row>
     <row r="650">
@@ -7586,7 +7586,7 @@
         <v>0.7611078218844748</v>
       </c>
       <c r="C650" t="n">
-        <v>0.7714986205101013</v>
+        <v>0.7714625000953674</v>
       </c>
     </row>
     <row r="651">
@@ -7597,7 +7597,7 @@
         <v>0.7611265048881726</v>
       </c>
       <c r="C651" t="n">
-        <v>0.770945131778717</v>
+        <v>0.7700785398483276</v>
       </c>
     </row>
     <row r="652">
@@ -7608,7 +7608,7 @@
         <v>0.7702985823882345</v>
       </c>
       <c r="C652" t="n">
-        <v>0.7719406485557556</v>
+        <v>0.7705627083778381</v>
       </c>
     </row>
     <row r="653">
@@ -7619,7 +7619,7 @@
         <v>0.7703173316654857</v>
       </c>
       <c r="C653" t="n">
-        <v>0.7744426131248474</v>
+        <v>0.7706207036972046</v>
       </c>
     </row>
     <row r="654">
@@ -7630,7 +7630,7 @@
         <v>0.7703129030619836</v>
       </c>
       <c r="C654" t="n">
-        <v>0.7756127715110779</v>
+        <v>0.770695686340332</v>
       </c>
     </row>
     <row r="655">
@@ -7641,7 +7641,7 @@
         <v>0.7519329417946232</v>
       </c>
       <c r="C655" t="n">
-        <v>0.7724342346191406</v>
+        <v>0.766788125038147</v>
       </c>
     </row>
     <row r="656">
@@ -7652,7 +7652,7 @@
         <v>0.7519417776936047</v>
       </c>
       <c r="C656" t="n">
-        <v>0.7667374610900879</v>
+        <v>0.7650409936904907</v>
       </c>
     </row>
     <row r="657">
@@ -7663,7 +7663,7 @@
         <v>0.7519390461116053</v>
       </c>
       <c r="C657" t="n">
-        <v>0.7632138133049011</v>
+        <v>0.764117419719696</v>
       </c>
     </row>
     <row r="658">
@@ -7674,7 +7674,7 @@
         <v>0.7519540974714031</v>
       </c>
       <c r="C658" t="n">
-        <v>0.762309730052948</v>
+        <v>0.7636157870292664</v>
       </c>
     </row>
     <row r="659">
@@ -7685,7 +7685,7 @@
         <v>0.7519445900523698</v>
       </c>
       <c r="C659" t="n">
-        <v>0.7618529200553894</v>
+        <v>0.7625353932380676</v>
       </c>
     </row>
     <row r="660">
@@ -7696,7 +7696,7 @@
         <v>0.7519419500659489</v>
       </c>
       <c r="C660" t="n">
-        <v>0.761305034160614</v>
+        <v>0.7610293030738831</v>
       </c>
     </row>
     <row r="661">
@@ -7707,7 +7707,7 @@
         <v>0.7702635824949347</v>
       </c>
       <c r="C661" t="n">
-        <v>0.7643826603889465</v>
+        <v>0.7638578414916992</v>
       </c>
     </row>
     <row r="662">
@@ -7718,7 +7718,7 @@
         <v>0.7611266719488989</v>
       </c>
       <c r="C662" t="n">
-        <v>0.768659234046936</v>
+        <v>0.7635504007339478</v>
       </c>
     </row>
     <row r="663">
@@ -7729,7 +7729,7 @@
         <v>0.7519548596244373</v>
       </c>
       <c r="C663" t="n">
-        <v>0.7665321230888367</v>
+        <v>0.7611996531486511</v>
       </c>
     </row>
     <row r="664">
@@ -7740,7 +7740,7 @@
         <v>0.7611403528076515</v>
       </c>
       <c r="C664" t="n">
-        <v>0.7644472718238831</v>
+        <v>0.7624146938323975</v>
       </c>
     </row>
     <row r="665">
@@ -7751,7 +7751,7 @@
         <v>0.7611209590172899</v>
       </c>
       <c r="C665" t="n">
-        <v>0.7657060623168945</v>
+        <v>0.7638275623321533</v>
       </c>
     </row>
     <row r="666">
@@ -7762,7 +7762,7 @@
         <v>0.7611103844097609</v>
       </c>
       <c r="C666" t="n">
-        <v>0.7669875621795654</v>
+        <v>0.7649277448654175</v>
       </c>
     </row>
     <row r="667">
@@ -7773,7 +7773,7 @@
         <v>0.7611194227414364</v>
       </c>
       <c r="C667" t="n">
-        <v>0.7676849365234375</v>
+        <v>0.7653109431266785</v>
       </c>
     </row>
     <row r="668">
@@ -7784,7 +7784,7 @@
         <v>0.77031480436073</v>
       </c>
       <c r="C668" t="n">
-        <v>0.7698401808738708</v>
+        <v>0.7676496505737305</v>
       </c>
     </row>
     <row r="669">
@@ -7795,7 +7795,7 @@
         <v>0.7703104316799002</v>
       </c>
       <c r="C669" t="n">
-        <v>0.7731407284736633</v>
+        <v>0.7692069411277771</v>
       </c>
     </row>
     <row r="670">
@@ -7806,7 +7806,7 @@
         <v>0.7787469939766429</v>
       </c>
       <c r="C670" t="n">
-        <v>0.776456356048584</v>
+        <v>0.7719350457191467</v>
       </c>
     </row>
     <row r="671">
@@ -7817,7 +7817,7 @@
         <v>0.7788756181400934</v>
       </c>
       <c r="C671" t="n">
-        <v>0.7806050181388855</v>
+        <v>0.7741925120353699</v>
       </c>
     </row>
     <row r="672">
@@ -7828,7 +7828,7 @@
         <v>0.7788946001876081</v>
       </c>
       <c r="C672" t="n">
-        <v>0.7826822996139526</v>
+        <v>0.7760053277015686</v>
       </c>
     </row>
     <row r="673">
@@ -7839,7 +7839,7 @@
         <v>0.7788938810121367</v>
       </c>
       <c r="C673" t="n">
-        <v>0.7834597229957581</v>
+        <v>0.7775835394859314</v>
       </c>
     </row>
     <row r="674">
@@ -7850,7 +7850,7 @@
         <v>0.7789623726740217</v>
       </c>
       <c r="C674" t="n">
-        <v>0.784090518951416</v>
+        <v>0.778981626033783</v>
       </c>
     </row>
     <row r="675">
@@ -7861,7 +7861,7 @@
         <v>0.7790352269089696</v>
       </c>
       <c r="C675" t="n">
-        <v>0.7846360206604004</v>
+        <v>0.7802404165267944</v>
       </c>
     </row>
     <row r="676">
@@ -7872,7 +7872,7 @@
         <v>0.7790586614502408</v>
       </c>
       <c r="C676" t="n">
-        <v>0.7852988243103027</v>
+        <v>0.781425952911377</v>
       </c>
     </row>
     <row r="677">
@@ -7883,7 +7883,7 @@
         <v>0.7790855274287456</v>
       </c>
       <c r="C677" t="n">
-        <v>0.7856824994087219</v>
+        <v>0.7819028496742249</v>
       </c>
     </row>
     <row r="678">
@@ -7894,7 +7894,7 @@
         <v>0.7790189976376792</v>
       </c>
       <c r="C678" t="n">
-        <v>0.7857614159584045</v>
+        <v>0.7822117805480957</v>
       </c>
     </row>
     <row r="679">
@@ -7905,7 +7905,7 @@
         <v>0.7789444098982692</v>
       </c>
       <c r="C679" t="n">
-        <v>0.7858713865280151</v>
+        <v>0.7822117209434509</v>
       </c>
     </row>
     <row r="680">
@@ -7916,7 +7916,7 @@
         <v>0.7794757225287291</v>
       </c>
       <c r="C680" t="n">
-        <v>0.7859328389167786</v>
+        <v>0.7822641730308533</v>
       </c>
     </row>
     <row r="681">
@@ -7927,7 +7927,7 @@
         <v>0.7703022833499285</v>
       </c>
       <c r="C681" t="n">
-        <v>0.7845476269721985</v>
+        <v>0.7801039814949036</v>
       </c>
     </row>
     <row r="682">
@@ -7938,7 +7938,7 @@
         <v>0.7611330231315762</v>
       </c>
       <c r="C682" t="n">
-        <v>0.7798016667366028</v>
+        <v>0.7766496539115906</v>
       </c>
     </row>
     <row r="683">
@@ -7949,7 +7949,7 @@
         <v>0.7791765633761095</v>
       </c>
       <c r="C683" t="n">
-        <v>0.7786889672279358</v>
+        <v>0.778791606426239</v>
       </c>
     </row>
     <row r="684">
@@ -7960,7 +7960,7 @@
         <v>0.7792611817304564</v>
       </c>
       <c r="C684" t="n">
-        <v>0.7826298475265503</v>
+        <v>0.7801353931427002</v>
       </c>
     </row>
     <row r="685">
@@ -7971,7 +7971,7 @@
         <v>0.7790398100177697</v>
       </c>
       <c r="C685" t="n">
-        <v>0.7849245667457581</v>
+        <v>0.7802248597145081</v>
       </c>
     </row>
     <row r="686">
@@ -7982,7 +7982,7 @@
         <v>0.7611228313820244</v>
       </c>
       <c r="C686" t="n">
-        <v>0.7819432020187378</v>
+        <v>0.7757623791694641</v>
       </c>
     </row>
     <row r="687">
@@ -7993,7 +7993,7 @@
         <v>0.7519477808956516</v>
       </c>
       <c r="C687" t="n">
-        <v>0.7742820382118225</v>
+        <v>0.7708759903907776</v>
       </c>
     </row>
     <row r="688">
@@ -8004,7 +8004,7 @@
         <v>0.7519707456051626</v>
       </c>
       <c r="C688" t="n">
-        <v>0.7679463624954224</v>
+        <v>0.7685797810554504</v>
       </c>
     </row>
     <row r="689">
@@ -8015,7 +8015,7 @@
         <v>0.751982800679161</v>
       </c>
       <c r="C689" t="n">
-        <v>0.7651331424713135</v>
+        <v>0.7671006917953491</v>
       </c>
     </row>
     <row r="690">
@@ -8026,7 +8026,7 @@
         <v>0.7519603794548875</v>
       </c>
       <c r="C690" t="n">
-        <v>0.7641690969467163</v>
+        <v>0.7655001282691956</v>
       </c>
     </row>
     <row r="691">
@@ -8037,7 +8037,7 @@
         <v>0.7517027655251285</v>
       </c>
       <c r="C691" t="n">
-        <v>0.7633646130561829</v>
+        <v>0.7634610533714294</v>
       </c>
     </row>
     <row r="692">
@@ -8048,7 +8048,7 @@
         <v>0.7611709199430153</v>
       </c>
       <c r="C692" t="n">
-        <v>0.7638278603553772</v>
+        <v>0.7632972002029419</v>
       </c>
     </row>
     <row r="693">
@@ -8059,7 +8059,7 @@
         <v>0.7692792040625126</v>
       </c>
       <c r="C693" t="n">
-        <v>0.7673435807228088</v>
+        <v>0.7646469473838806</v>
       </c>
     </row>
     <row r="694">
@@ -8070,7 +8070,7 @@
         <v>0.7692667571223295</v>
       </c>
       <c r="C694" t="n">
-        <v>0.7714496850967407</v>
+        <v>0.765835165977478</v>
       </c>
     </row>
     <row r="695">
@@ -8081,7 +8081,7 @@
         <v>0.7515328277717181</v>
       </c>
       <c r="C695" t="n">
-        <v>0.7697885632514954</v>
+        <v>0.7628893256187439</v>
       </c>
     </row>
     <row r="696">
@@ -8092,7 +8092,7 @@
         <v>0.7428487935324154</v>
       </c>
       <c r="C696" t="n">
-        <v>0.7627327442169189</v>
+        <v>0.7595018744468689</v>
       </c>
     </row>
     <row r="697">
@@ -8103,7 +8103,7 @@
         <v>0.742852142942184</v>
       </c>
       <c r="C697" t="n">
-        <v>0.7569147348403931</v>
+        <v>0.7582199573516846</v>
       </c>
     </row>
     <row r="698">
@@ -8114,7 +8114,7 @@
         <v>0.7336787370254829</v>
       </c>
       <c r="C698" t="n">
-        <v>0.7526611089706421</v>
+        <v>0.7556096315383911</v>
       </c>
     </row>
     <row r="699">
@@ -8125,7 +8125,7 @@
         <v>0.7336709996023923</v>
       </c>
       <c r="C699" t="n">
-        <v>0.7495629787445068</v>
+        <v>0.7533720731735229</v>
       </c>
     </row>
     <row r="700">
@@ -8136,7 +8136,7 @@
         <v>0.7336756806192225</v>
       </c>
       <c r="C700" t="n">
-        <v>0.7473881840705872</v>
+        <v>0.7509008049964905</v>
       </c>
     </row>
     <row r="701">
@@ -8147,7 +8147,7 @@
         <v>0.7519096761372586</v>
       </c>
       <c r="C701" t="n">
-        <v>0.7496376633644104</v>
+        <v>0.752387523651123</v>
       </c>
     </row>
     <row r="702">
@@ -8158,7 +8158,7 @@
         <v>0.7520381123813691</v>
       </c>
       <c r="C702" t="n">
-        <v>0.7540715932846069</v>
+        <v>0.7527828216552734</v>
       </c>
     </row>
     <row r="703">
@@ -8169,7 +8169,7 @@
         <v>0.7520467948736204</v>
       </c>
       <c r="C703" t="n">
-        <v>0.7565567493438721</v>
+        <v>0.7526937127113342</v>
       </c>
     </row>
     <row r="704">
@@ -8180,7 +8180,7 @@
         <v>0.733689349639332</v>
       </c>
       <c r="C704" t="n">
-        <v>0.7530453205108643</v>
+        <v>0.7488132119178772</v>
       </c>
     </row>
     <row r="705">
@@ -8191,7 +8191,7 @@
         <v>0.724505213279123</v>
       </c>
       <c r="C705" t="n">
-        <v>0.7453533411026001</v>
+        <v>0.7448717355728149</v>
       </c>
     </row>
     <row r="706">
@@ -8202,7 +8202,7 @@
         <v>0.7245036501674509</v>
       </c>
       <c r="C706" t="n">
-        <v>0.7391496300697327</v>
+        <v>0.7430598735809326</v>
       </c>
     </row>
     <row r="707">
@@ -8213,7 +8213,7 @@
         <v>0.7428814891992552</v>
       </c>
       <c r="C707" t="n">
-        <v>0.741097092628479</v>
+        <v>0.7468782067298889</v>
       </c>
     </row>
     <row r="708">
@@ -8224,7 +8224,7 @@
         <v>0.7326134240219601</v>
       </c>
       <c r="C708" t="n">
-        <v>0.7439704537391663</v>
+        <v>0.746037483215332</v>
       </c>
     </row>
     <row r="709">
@@ -8235,7 +8235,7 @@
         <v>0.6878042120426561</v>
       </c>
       <c r="C709" t="n">
-        <v>0.7335650324821472</v>
+        <v>0.7302591800689697</v>
       </c>
     </row>
     <row r="710">
@@ -8246,7 +8246,7 @@
         <v>0.6786376291192338</v>
       </c>
       <c r="C710" t="n">
-        <v>0.7177528738975525</v>
+        <v>0.7163130044937134</v>
       </c>
     </row>
     <row r="711">
@@ -8257,7 +8257,7 @@
         <v>0.7060210847776428</v>
       </c>
       <c r="C711" t="n">
-        <v>0.7124675512313843</v>
+        <v>0.7173987030982971</v>
       </c>
     </row>
     <row r="712">
@@ -8268,7 +8268,7 @@
         <v>0.7061584609407369</v>
       </c>
       <c r="C712" t="n">
-        <v>0.7135030031204224</v>
+        <v>0.717581033706665</v>
       </c>
     </row>
     <row r="713">
@@ -8279,7 +8279,7 @@
         <v>0.7061748208677621</v>
       </c>
       <c r="C713" t="n">
-        <v>0.7154685854911804</v>
+        <v>0.7155656218528748</v>
       </c>
     </row>
     <row r="714">
@@ -8290,7 +8290,7 @@
         <v>0.669469141871689</v>
       </c>
       <c r="C714" t="n">
-        <v>0.7057339549064636</v>
+        <v>0.6987345218658447</v>
       </c>
     </row>
     <row r="715">
@@ -8301,7 +8301,7 @@
         <v>0.6511086664681589</v>
       </c>
       <c r="C715" t="n">
-        <v>0.6882703900337219</v>
+        <v>0.6816790699958801</v>
       </c>
     </row>
     <row r="716">
@@ -8312,7 +8312,7 @@
         <v>0.6511025362486509</v>
       </c>
       <c r="C716" t="n">
-        <v>0.6736006140708923</v>
+        <v>0.6714021563529968</v>
       </c>
     </row>
     <row r="717">
@@ -8323,7 +8323,7 @@
         <v>0.6419323354470592</v>
       </c>
       <c r="C717" t="n">
-        <v>0.663617730140686</v>
+        <v>0.6634558439254761</v>
       </c>
     </row>
     <row r="718">
@@ -8334,7 +8334,7 @@
         <v>0.6327543712964352</v>
       </c>
       <c r="C718" t="n">
-        <v>0.658216118812561</v>
+        <v>0.6547487378120422</v>
       </c>
     </row>
     <row r="719">
@@ -8345,7 +8345,7 @@
         <v>0.6327511886055714</v>
       </c>
       <c r="C719" t="n">
-        <v>0.6534094214439392</v>
+        <v>0.6465039253234863</v>
       </c>
     </row>
     <row r="720">
@@ -8356,7 +8356,7 @@
         <v>0.6511065427505708</v>
       </c>
       <c r="C720" t="n">
-        <v>0.6527445316314697</v>
+        <v>0.6437860131263733</v>
       </c>
     </row>
     <row r="721">
@@ -8367,7 +8367,7 @@
         <v>0.6602696700475508</v>
       </c>
       <c r="C721" t="n">
-        <v>0.6542253494262695</v>
+        <v>0.6446980834007263</v>
       </c>
     </row>
     <row r="722">
@@ -8378,7 +8378,7 @@
         <v>0.6602731175453229</v>
       </c>
       <c r="C722" t="n">
-        <v>0.6563859581947327</v>
+        <v>0.6449010372161865</v>
       </c>
     </row>
     <row r="723">
@@ -8389,7 +8389,7 @@
         <v>0.6327498720480139</v>
       </c>
       <c r="C723" t="n">
-        <v>0.6523427367210388</v>
+        <v>0.6390499472618103</v>
       </c>
     </row>
     <row r="724">
@@ -8400,7 +8400,7 @@
         <v>0.6235806599786283</v>
       </c>
       <c r="C724" t="n">
-        <v>0.645669162273407</v>
+        <v>0.6330207586288452</v>
       </c>
     </row>
     <row r="725">
@@ -8411,7 +8411,7 @@
         <v>0.6235847648185537</v>
       </c>
       <c r="C725" t="n">
-        <v>0.640105664730072</v>
+        <v>0.6292353868484497</v>
       </c>
     </row>
     <row r="726">
@@ -8422,7 +8422,7 @@
         <v>0.6144135776980257</v>
       </c>
       <c r="C726" t="n">
-        <v>0.6359750032424927</v>
+        <v>0.6257808804512024</v>
       </c>
     </row>
     <row r="727">
@@ -8433,7 +8433,7 @@
         <v>0.6144286523882663</v>
       </c>
       <c r="C727" t="n">
-        <v>0.6337102651596069</v>
+        <v>0.6221337914466858</v>
       </c>
     </row>
     <row r="728">
@@ -8444,7 +8444,7 @@
         <v>0.6052366458063813</v>
       </c>
       <c r="C728" t="n">
-        <v>0.6295871138572693</v>
+        <v>0.6169631481170654</v>
       </c>
     </row>
     <row r="729">
@@ -8455,7 +8455,7 @@
         <v>0.6144012610824254</v>
       </c>
       <c r="C729" t="n">
-        <v>0.6280043721199036</v>
+        <v>0.6131704449653625</v>
       </c>
     </row>
     <row r="730">
@@ -8466,7 +8466,7 @@
         <v>0.6327604051851277</v>
       </c>
       <c r="C730" t="n">
-        <v>0.630836546421051</v>
+        <v>0.6144733428955078</v>
       </c>
     </row>
     <row r="731">
@@ -8477,7 +8477,7 @@
         <v>0.6327611032258831</v>
       </c>
       <c r="C731" t="n">
-        <v>0.634630024433136</v>
+        <v>0.617667019367218</v>
       </c>
     </row>
     <row r="732">
@@ -8488,7 +8488,7 @@
         <v>0.6419334560007126</v>
       </c>
       <c r="C732" t="n">
-        <v>0.6389350295066833</v>
+        <v>0.6208401918411255</v>
       </c>
     </row>
     <row r="733">
@@ -8499,7 +8499,7 @@
         <v>0.6052462163698099</v>
       </c>
       <c r="C733" t="n">
-        <v>0.634015679359436</v>
+        <v>0.6172310709953308</v>
       </c>
     </row>
     <row r="734">
@@ -8510,7 +8510,7 @@
         <v>0.5960772358261275</v>
       </c>
       <c r="C734" t="n">
-        <v>0.6263537406921387</v>
+        <v>0.6103633046150208</v>
       </c>
     </row>
     <row r="735">
@@ -8521,7 +8521,7 @@
         <v>0.5960786207327819</v>
       </c>
       <c r="C735" t="n">
-        <v>0.6197982430458069</v>
+        <v>0.6054270267486572</v>
       </c>
     </row>
     <row r="736">
@@ -8532,7 +8532,7 @@
         <v>0.5960741581499276</v>
       </c>
       <c r="C736" t="n">
-        <v>0.6169883012771606</v>
+        <v>0.6028543710708618</v>
       </c>
     </row>
     <row r="737">
@@ -8543,7 +8543,7 @@
         <v>0.5960667828745954</v>
       </c>
       <c r="C737" t="n">
-        <v>0.6159868240356445</v>
+        <v>0.6005964875221252</v>
       </c>
     </row>
     <row r="738">
@@ -8554,7 +8554,7 @@
         <v>0.5868990494621258</v>
       </c>
       <c r="C738" t="n">
-        <v>0.612693727016449</v>
+        <v>0.596490204334259</v>
       </c>
     </row>
     <row r="739">
@@ -8565,7 +8565,7 @@
         <v>0.5869038330145805</v>
       </c>
       <c r="C739" t="n">
-        <v>0.609002411365509</v>
+        <v>0.5911931991577148</v>
       </c>
     </row>
     <row r="740">
@@ -8576,7 +8576,7 @@
         <v>0.5777152084886814</v>
       </c>
       <c r="C740" t="n">
-        <v>0.6035431623458862</v>
+        <v>0.5857359766960144</v>
       </c>
     </row>
     <row r="741">
@@ -8587,7 +8587,7 @@
         <v>0.5685433522607604</v>
       </c>
       <c r="C741" t="n">
-        <v>0.5976152420043945</v>
+        <v>0.579439103603363</v>
       </c>
     </row>
     <row r="742">
@@ -8598,7 +8598,7 @@
         <v>0.5685418353575702</v>
       </c>
       <c r="C742" t="n">
-        <v>0.5931691527366638</v>
+        <v>0.5737821459770203</v>
       </c>
     </row>
     <row r="743">
@@ -8609,7 +8609,7 @@
         <v>0.5685599413789499</v>
       </c>
       <c r="C743" t="n">
-        <v>0.5902949571609497</v>
+        <v>0.5706859230995178</v>
       </c>
     </row>
     <row r="744">
@@ -8620,7 +8620,7 @@
         <v>0.5685491971385997</v>
       </c>
       <c r="C744" t="n">
-        <v>0.5884045362472534</v>
+        <v>0.5685081481933594</v>
       </c>
     </row>
     <row r="745">
@@ -8631,7 +8631,7 @@
         <v>0.5685494604719865</v>
       </c>
       <c r="C745" t="n">
-        <v>0.5871080756187439</v>
+        <v>0.5666804909706116</v>
       </c>
     </row>
     <row r="746">
@@ -8642,7 +8642,7 @@
         <v>0.5869008848768746</v>
       </c>
       <c r="C746" t="n">
-        <v>0.5911732912063599</v>
+        <v>0.5674774050712585</v>
       </c>
     </row>
     <row r="747">
@@ -8653,7 +8653,7 @@
         <v>0.5869087922307828</v>
       </c>
       <c r="C747" t="n">
-        <v>0.5951535701751709</v>
+        <v>0.5731006860733032</v>
       </c>
     </row>
     <row r="748">
@@ -8664,7 +8664,7 @@
         <v>0.5869087219130419</v>
       </c>
       <c r="C748" t="n">
-        <v>0.5981265306472778</v>
+        <v>0.5754539370536804</v>
       </c>
     </row>
     <row r="749">
@@ -8675,7 +8675,7 @@
         <v>0.5869072286213082</v>
       </c>
       <c r="C749" t="n">
-        <v>0.5989312529563904</v>
+        <v>0.5766142010688782</v>
       </c>
     </row>
     <row r="750">
@@ -8686,7 +8686,7 @@
         <v>0.5868963480246298</v>
       </c>
       <c r="C750" t="n">
-        <v>0.5995152592658997</v>
+        <v>0.5777819752693176</v>
       </c>
     </row>
     <row r="751">
@@ -8697,7 +8697,7 @@
         <v>0.586893613256672</v>
       </c>
       <c r="C751" t="n">
-        <v>0.6000317931175232</v>
+        <v>0.5788419246673584</v>
       </c>
     </row>
     <row r="752">
@@ -8708,7 +8708,7 @@
         <v>0.5869057803794668</v>
       </c>
       <c r="C752" t="n">
-        <v>0.6006078720092773</v>
+        <v>0.5799223780632019</v>
       </c>
     </row>
     <row r="753">
@@ -8719,7 +8719,7 @@
         <v>0.586913371437481</v>
       </c>
       <c r="C753" t="n">
-        <v>0.6010795831680298</v>
+        <v>0.5806710720062256</v>
       </c>
     </row>
     <row r="754">
@@ -8730,7 +8730,7 @@
         <v>0.5868904054188921</v>
       </c>
       <c r="C754" t="n">
-        <v>0.601280689239502</v>
+        <v>0.5812070965766907</v>
       </c>
     </row>
     <row r="755">
@@ -8741,7 +8741,7 @@
         <v>0.6235907545565355</v>
       </c>
       <c r="C755" t="n">
-        <v>0.6107757687568665</v>
+        <v>0.5873575210571289</v>
       </c>
     </row>
     <row r="756">
@@ -8752,7 +8752,7 @@
         <v>0.605240202310293</v>
       </c>
       <c r="C756" t="n">
-        <v>0.6159278750419617</v>
+        <v>0.5967589020729065</v>
       </c>
     </row>
     <row r="757">
@@ -8763,7 +8763,7 @@
         <v>0.5960961718861135</v>
       </c>
       <c r="C757" t="n">
-        <v>0.6157392859458923</v>
+        <v>0.5949802994728088</v>
       </c>
     </row>
     <row r="758">
@@ -8774,7 +8774,7 @@
         <v>0.5869134871217921</v>
       </c>
       <c r="C758" t="n">
-        <v>0.6099029183387756</v>
+        <v>0.591004490852356</v>
       </c>
     </row>
     <row r="759">
@@ -8785,7 +8785,7 @@
         <v>0.5777343371525879</v>
       </c>
       <c r="C759" t="n">
-        <v>0.6040912270545959</v>
+        <v>0.5869480967521667</v>
       </c>
     </row>
     <row r="760">
@@ -8796,7 +8796,7 @@
         <v>0.5777262008313646</v>
       </c>
       <c r="C760" t="n">
-        <v>0.6006426811218262</v>
+        <v>0.5831252336502075</v>
       </c>
     </row>
     <row r="761">
@@ -8807,7 +8807,7 @@
         <v>0.5685480548781897</v>
       </c>
       <c r="C761" t="n">
-        <v>0.5966746211051941</v>
+        <v>0.5795893669128418</v>
       </c>
     </row>
     <row r="762">
@@ -8818,7 +8818,7 @@
         <v>0.5685708381536057</v>
       </c>
       <c r="C762" t="n">
-        <v>0.5935564041137695</v>
+        <v>0.5747942924499512</v>
       </c>
     </row>
     <row r="763">
@@ -8829,7 +8829,7 @@
         <v>0.5685612362133641</v>
       </c>
       <c r="C763" t="n">
-        <v>0.5904862284660339</v>
+        <v>0.571310818195343</v>
       </c>
     </row>
     <row r="764">
@@ -8840,7 +8840,7 @@
         <v>0.5777340051802398</v>
       </c>
       <c r="C764" t="n">
-        <v>0.590822160243988</v>
+        <v>0.569612443447113</v>
       </c>
     </row>
     <row r="765">
@@ -8851,7 +8851,7 @@
         <v>0.5777432394890079</v>
       </c>
       <c r="C765" t="n">
-        <v>0.5916679501533508</v>
+        <v>0.5705626010894775</v>
       </c>
     </row>
     <row r="766">
@@ -8862,7 +8862,7 @@
         <v>0.5777434796320658</v>
       </c>
       <c r="C766" t="n">
-        <v>0.5925323367118835</v>
+        <v>0.5706486105918884</v>
       </c>
     </row>
     <row r="767">
@@ -8873,7 +8873,7 @@
         <v>0.5685442486487087</v>
       </c>
       <c r="C767" t="n">
-        <v>0.5899627804756165</v>
+        <v>0.5695809721946716</v>
       </c>
     </row>
     <row r="768">
@@ -8884,7 +8884,7 @@
         <v>0.5593905137399657</v>
       </c>
       <c r="C768" t="n">
-        <v>0.5851449370384216</v>
+        <v>0.5657386183738708</v>
       </c>
     </row>
     <row r="769">
@@ -8895,7 +8895,7 @@
         <v>0.5593736784487048</v>
       </c>
       <c r="C769" t="n">
-        <v>0.5812615752220154</v>
+        <v>0.5613808035850525</v>
       </c>
     </row>
     <row r="770">
@@ -8906,7 +8906,7 @@
         <v>0.5502002469860212</v>
       </c>
       <c r="C770" t="n">
-        <v>0.5767543315887451</v>
+        <v>0.5582754611968994</v>
       </c>
     </row>
     <row r="771">
@@ -8917,7 +8917,7 @@
         <v>0.550215261427391</v>
       </c>
       <c r="C771" t="n">
-        <v>0.5737057328224182</v>
+        <v>0.5536838173866272</v>
       </c>
     </row>
     <row r="772">
@@ -8928,7 +8928,7 @@
         <v>0.5502093979037502</v>
       </c>
       <c r="C772" t="n">
-        <v>0.5711867213249207</v>
+        <v>0.5508275628089905</v>
       </c>
     </row>
     <row r="773">
@@ -8939,7 +8939,7 @@
         <v>0.5502412131237253</v>
       </c>
       <c r="C773" t="n">
-        <v>0.5696814656257629</v>
+        <v>0.5488668084144592</v>
       </c>
     </row>
     <row r="774">
@@ -8950,7 +8950,7 @@
         <v>0.5410678040821679</v>
       </c>
       <c r="C774" t="n">
-        <v>0.5658972859382629</v>
+        <v>0.5461352467536926</v>
       </c>
     </row>
     <row r="775">
@@ -8961,7 +8961,7 @@
         <v>0.5502352139960449</v>
       </c>
       <c r="C775" t="n">
-        <v>0.5652670860290527</v>
+        <v>0.5428529381752014</v>
       </c>
     </row>
     <row r="776">
@@ -8972,7 +8972,7 @@
         <v>0.5777449472553726</v>
       </c>
       <c r="C776" t="n">
-        <v>0.5735501646995544</v>
+        <v>0.5466187596321106</v>
       </c>
     </row>
     <row r="777">
@@ -8983,7 +8983,7 @@
         <v>0.5502185528005402</v>
       </c>
       <c r="C777" t="n">
-        <v>0.5746014714241028</v>
+        <v>0.5560588836669922</v>
       </c>
     </row>
     <row r="778">
@@ -8994,7 +8994,7 @@
         <v>0.5410397769021331</v>
       </c>
       <c r="C778" t="n">
-        <v>0.57012939453125</v>
+        <v>0.5498983860015869</v>
       </c>
     </row>
     <row r="779">
@@ -9005,7 +9005,7 @@
         <v>0.5410490228255459</v>
       </c>
       <c r="C779" t="n">
-        <v>0.5635738968849182</v>
+        <v>0.5434519648551941</v>
       </c>
     </row>
     <row r="780">
@@ -9016,7 +9016,7 @@
         <v>0.5318665177548232</v>
       </c>
       <c r="C780" t="n">
-        <v>0.55802321434021</v>
+        <v>0.5399365425109863</v>
       </c>
     </row>
     <row r="781">
@@ -9027,7 +9027,7 @@
         <v>0.5227022221436229</v>
       </c>
       <c r="C781" t="n">
-        <v>0.5525373816490173</v>
+        <v>0.5348228812217712</v>
       </c>
     </row>
     <row r="782">
@@ -9038,7 +9038,7 @@
         <v>0.5226930889719313</v>
       </c>
       <c r="C782" t="n">
-        <v>0.5482693314552307</v>
+        <v>0.529032289981842</v>
       </c>
     </row>
     <row r="783">
@@ -9049,7 +9049,7 @@
         <v>0.5227051627499014</v>
       </c>
       <c r="C783" t="n">
-        <v>0.5448903441429138</v>
+        <v>0.5251922607421875</v>
       </c>
     </row>
     <row r="784">
@@ -9060,7 +9060,7 @@
         <v>0.5135437008193269</v>
       </c>
       <c r="C784" t="n">
-        <v>0.5396504402160645</v>
+        <v>0.521790087223053</v>
       </c>
     </row>
     <row r="785">
@@ -9071,7 +9071,7 @@
         <v>0.5135272304460843</v>
       </c>
       <c r="C785" t="n">
-        <v>0.5352537035942078</v>
+        <v>0.5161726474761963</v>
       </c>
     </row>
     <row r="786">
@@ -9082,7 +9082,7 @@
         <v>0.5135279721497742</v>
       </c>
       <c r="C786" t="n">
-        <v>0.5320327877998352</v>
+        <v>0.5123659372329712</v>
       </c>
     </row>
     <row r="787">
@@ -9093,7 +9093,7 @@
         <v>0.5135264919926945</v>
       </c>
       <c r="C787" t="n">
-        <v>0.5302674770355225</v>
+        <v>0.5103493928909302</v>
       </c>
     </row>
     <row r="788">
@@ -9104,7 +9104,7 @@
         <v>0.5135333520747332</v>
       </c>
       <c r="C788" t="n">
-        <v>0.528820276260376</v>
+        <v>0.5090972781181335</v>
       </c>
     </row>
     <row r="789">
@@ -9115,7 +9115,7 @@
         <v>0.5135409729189913</v>
       </c>
       <c r="C789" t="n">
-        <v>0.5279609560966492</v>
+        <v>0.5081678032875061</v>
       </c>
     </row>
     <row r="790">
@@ -9126,7 +9126,7 @@
         <v>0.5043629599467657</v>
       </c>
       <c r="C790" t="n">
-        <v>0.524665892124176</v>
+        <v>0.5069277286529541</v>
       </c>
     </row>
     <row r="791">
@@ -9137,7 +9137,7 @@
         <v>0.5043565290669756</v>
       </c>
       <c r="C791" t="n">
-        <v>0.5216639637947083</v>
+        <v>0.5027936100959778</v>
       </c>
     </row>
     <row r="792">
@@ -9148,7 +9148,7 @@
         <v>0.5043492529444553</v>
       </c>
       <c r="C792" t="n">
-        <v>0.5195105075836182</v>
+        <v>0.5004474520683289</v>
       </c>
     </row>
     <row r="793">
@@ -9159,7 +9159,7 @@
         <v>0.4860077718710963</v>
       </c>
       <c r="C793" t="n">
-        <v>0.5135548114776611</v>
+        <v>0.4980678558349609</v>
       </c>
     </row>
     <row r="794">
@@ -9170,7 +9170,7 @@
         <v>0.4860130091578362</v>
       </c>
       <c r="C794" t="n">
-        <v>0.5086150765419006</v>
+        <v>0.4906603097915649</v>
       </c>
     </row>
     <row r="795">
@@ -9181,7 +9181,7 @@
         <v>0.4768393687153238</v>
       </c>
       <c r="C795" t="n">
-        <v>0.5022947192192078</v>
+        <v>0.4853836894035339</v>
       </c>
     </row>
     <row r="796">
@@ -9192,7 +9192,7 @@
         <v>0.4768332909666734</v>
       </c>
       <c r="C796" t="n">
-        <v>0.4980848431587219</v>
+        <v>0.4794309735298157</v>
       </c>
     </row>
     <row r="797">
@@ -9203,7 +9203,7 @@
         <v>0.4768411411462966</v>
       </c>
       <c r="C797" t="n">
-        <v>0.4949646592140198</v>
+        <v>0.4756909310817719</v>
       </c>
     </row>
     <row r="798">
@@ -9214,7 +9214,7 @@
         <v>0.4768502759754238</v>
       </c>
       <c r="C798" t="n">
-        <v>0.4928617179393768</v>
+        <v>0.4734626412391663</v>
       </c>
     </row>
     <row r="799">
@@ -9225,7 +9225,7 @@
         <v>0.4768389709325112</v>
       </c>
       <c r="C799" t="n">
-        <v>0.4910827577114105</v>
+        <v>0.4716975688934326</v>
       </c>
     </row>
     <row r="800">
@@ -9236,7 +9236,7 @@
         <v>0.4768554922730048</v>
       </c>
       <c r="C800" t="n">
-        <v>0.4896093010902405</v>
+        <v>0.4705292582511902</v>
       </c>
     </row>
     <row r="801">
@@ -9247,7 +9247,7 @@
         <v>0.4768387326970327</v>
       </c>
       <c r="C801" t="n">
-        <v>0.4885957837104797</v>
+        <v>0.4696120023727417</v>
       </c>
     </row>
     <row r="802">
@@ -9258,7 +9258,7 @@
         <v>0.467672280128602</v>
       </c>
       <c r="C802" t="n">
-        <v>0.4855683147907257</v>
+        <v>0.4685989618301392</v>
       </c>
     </row>
     <row r="803">
@@ -9269,7 +9269,7 @@
         <v>0.4676858345023537</v>
       </c>
       <c r="C803" t="n">
-        <v>0.4829084873199463</v>
+        <v>0.4649710357189178</v>
       </c>
     </row>
     <row r="804">
@@ -9280,7 +9280,7 @@
         <v>0.4951789506797556</v>
       </c>
       <c r="C804" t="n">
-        <v>0.4898388385772705</v>
+        <v>0.4649184048175812</v>
       </c>
     </row>
     <row r="805">
@@ -9291,7 +9291,7 @@
         <v>0.4768470938487148</v>
       </c>
       <c r="C805" t="n">
-        <v>0.4913349747657776</v>
+        <v>0.4755778312683105</v>
       </c>
     </row>
     <row r="806">
@@ -9302,7 +9302,7 @@
         <v>0.4676738222183074</v>
       </c>
       <c r="C806" t="n">
-        <v>0.4886416792869568</v>
+        <v>0.4717323780059814</v>
       </c>
     </row>
     <row r="807">
@@ -9313,7 +9313,7 @@
         <v>0.458486523178308</v>
       </c>
       <c r="C807" t="n">
-        <v>0.4813997745513916</v>
+        <v>0.4658287167549133</v>
       </c>
     </row>
     <row r="808">
@@ -9324,7 +9324,7 @@
         <v>0.4493270591837598</v>
       </c>
       <c r="C808" t="n">
-        <v>0.4745022356510162</v>
+        <v>0.4595697820186615</v>
       </c>
     </row>
     <row r="809">
@@ -9335,7 +9335,7 @@
         <v>0.4493300702352642</v>
       </c>
       <c r="C809" t="n">
-        <v>0.4703980088233948</v>
+        <v>0.4534574449062347</v>
       </c>
     </row>
     <row r="810">
@@ -9346,7 +9346,7 @@
         <v>0.4401549139309389</v>
       </c>
       <c r="C810" t="n">
-        <v>0.4660243391990662</v>
+        <v>0.4494099617004395</v>
       </c>
     </row>
     <row r="811">
@@ -9357,7 +9357,7 @@
         <v>0.4401533947960812</v>
       </c>
       <c r="C811" t="n">
-        <v>0.4619697332382202</v>
+        <v>0.443705141544342</v>
       </c>
     </row>
     <row r="812">
@@ -9368,7 +9368,7 @@
         <v>0.4309862840425107</v>
       </c>
       <c r="C812" t="n">
-        <v>0.4557600319385529</v>
+        <v>0.4393105804920197</v>
       </c>
     </row>
     <row r="813">
@@ -9379,7 +9379,7 @@
         <v>0.4401702842214072</v>
       </c>
       <c r="C813" t="n">
-        <v>0.4525668621063232</v>
+        <v>0.4334902167320251</v>
       </c>
     </row>
     <row r="814">
@@ -9390,7 +9390,7 @@
         <v>0.4401582497172523</v>
       </c>
       <c r="C814" t="n">
-        <v>0.4507580995559692</v>
+        <v>0.4330266118049622</v>
       </c>
     </row>
     <row r="815">
@@ -9401,7 +9401,7 @@
         <v>0.4493424390052702</v>
       </c>
       <c r="C815" t="n">
-        <v>0.4528550207614899</v>
+        <v>0.433252364397049</v>
       </c>
     </row>
     <row r="816">
@@ -9412,7 +9412,7 @@
         <v>0.4218248934650127</v>
       </c>
       <c r="C816" t="n">
-        <v>0.4476125836372375</v>
+        <v>0.4359703660011292</v>
       </c>
     </row>
     <row r="817">
@@ -9423,7 +9423,7 @@
         <v>0.4218220501265932</v>
       </c>
       <c r="C817" t="n">
-        <v>0.4421208202838898</v>
+        <v>0.426240861415863</v>
       </c>
     </row>
     <row r="818">
@@ -9434,7 +9434,7 @@
         <v>0.4126514034834533</v>
       </c>
       <c r="C818" t="n">
-        <v>0.4352920353412628</v>
+        <v>0.419830709695816</v>
       </c>
     </row>
     <row r="819">
@@ -9445,7 +9445,7 @@
         <v>0.4126453047466961</v>
       </c>
       <c r="C819" t="n">
-        <v>0.4316281676292419</v>
+        <v>0.4138789772987366</v>
       </c>
     </row>
     <row r="820">
@@ -9456,7 +9456,7 @@
         <v>0.394310818011622</v>
       </c>
       <c r="C820" t="n">
-        <v>0.4265251159667969</v>
+        <v>0.4105595946311951</v>
       </c>
     </row>
     <row r="821">
@@ -9467,7 +9467,7 @@
         <v>0.3943138205680515</v>
       </c>
       <c r="C821" t="n">
-        <v>0.4237858653068542</v>
+        <v>0.4034851789474487</v>
       </c>
     </row>
     <row r="822">
@@ -9478,7 +9478,7 @@
         <v>0.3851449496607439</v>
       </c>
       <c r="C822" t="n">
-        <v>0.4208627939224243</v>
+        <v>0.3983650803565979</v>
       </c>
     </row>
     <row r="823">
@@ -9489,7 +9489,7 @@
         <v>0.3851373324752366</v>
       </c>
       <c r="C823" t="n">
-        <v>0.418544203042984</v>
+        <v>0.392562061548233</v>
       </c>
     </row>
     <row r="824">
@@ -9500,7 +9500,7 @@
         <v>0.3851361992940125</v>
       </c>
       <c r="C824" t="n">
-        <v>0.4171457290649414</v>
+        <v>0.388723760843277</v>
       </c>
     </row>
     <row r="825">
@@ -9511,7 +9511,7 @@
         <v>0.3759654375553729</v>
       </c>
       <c r="C825" t="n">
-        <v>0.414219468832016</v>
+        <v>0.3856705129146576</v>
       </c>
     </row>
     <row r="826">
@@ -9522,7 +9522,7 @@
         <v>0.3851251035361121</v>
       </c>
       <c r="C826" t="n">
-        <v>0.4126155972480774</v>
+        <v>0.3813705742359161</v>
       </c>
     </row>
     <row r="827">
@@ -9533,7 +9533,7 @@
         <v>0.3942956309162435</v>
       </c>
       <c r="C827" t="n">
-        <v>0.4153700768947601</v>
+        <v>0.3820511102676392</v>
       </c>
     </row>
     <row r="828">
@@ -9544,7 +9544,7 @@
         <v>0.3943002169880211</v>
       </c>
       <c r="C828" t="n">
-        <v>0.4163553416728973</v>
+        <v>0.3859080374240875</v>
       </c>
     </row>
     <row r="829">
@@ -9555,7 +9555,7 @@
         <v>0.3942986728983519</v>
       </c>
       <c r="C829" t="n">
-        <v>0.4166127145290375</v>
+        <v>0.3874084949493408</v>
       </c>
     </row>
     <row r="830">
@@ -9566,7 +9566,7 @@
         <v>0.3942969757910511</v>
       </c>
       <c r="C830" t="n">
-        <v>0.4167892932891846</v>
+        <v>0.3878854215145111</v>
       </c>
     </row>
     <row r="831">
@@ -9577,7 +9577,7 @@
         <v>0.3942905730057933</v>
       </c>
       <c r="C831" t="n">
-        <v>0.4169469177722931</v>
+        <v>0.3882758021354675</v>
       </c>
     </row>
     <row r="832">
@@ -9588,7 +9588,7 @@
         <v>0.375960938998975</v>
       </c>
       <c r="C832" t="n">
-        <v>0.4140146672725677</v>
+        <v>0.3882430791854858</v>
       </c>
     </row>
     <row r="833">
@@ -9599,7 +9599,7 @@
         <v>0.3759410274142816</v>
       </c>
       <c r="C833" t="n">
-        <v>0.4070837795734406</v>
+        <v>0.3823504149913788</v>
       </c>
     </row>
     <row r="834">
@@ -9610,7 +9610,7 @@
         <v>0.3759442197755594</v>
       </c>
       <c r="C834" t="n">
-        <v>0.4044377207756042</v>
+        <v>0.3792460262775421</v>
       </c>
     </row>
     <row r="835">
@@ -9621,7 +9621,7 @@
         <v>0.3667738846970948</v>
       </c>
       <c r="C835" t="n">
-        <v>0.3987657427787781</v>
+        <v>0.37742879986763</v>
       </c>
     </row>
     <row r="836">
@@ -9632,7 +9632,7 @@
         <v>0.366799688543635</v>
       </c>
       <c r="C836" t="n">
-        <v>0.3953490853309631</v>
+        <v>0.3734355270862579</v>
       </c>
     </row>
     <row r="837">
@@ -9643,7 +9643,7 @@
         <v>0.3759578813956768</v>
       </c>
       <c r="C837" t="n">
-        <v>0.3971931636333466</v>
+        <v>0.3711709082126617</v>
       </c>
     </row>
     <row r="838">
@@ -9654,7 +9654,7 @@
         <v>0.366807031122973</v>
       </c>
       <c r="C838" t="n">
-        <v>0.3941183984279633</v>
+        <v>0.3727362155914307</v>
       </c>
     </row>
     <row r="839">
@@ -9665,7 +9665,7 @@
         <v>0.366805685360922</v>
       </c>
       <c r="C839" t="n">
-        <v>0.391413152217865</v>
+        <v>0.3698969781398773</v>
       </c>
     </row>
     <row r="840">
@@ -9676,7 +9676,7 @@
         <v>0.3759867230155773</v>
       </c>
       <c r="C840" t="n">
-        <v>0.3945260941982269</v>
+        <v>0.3684675395488739</v>
       </c>
     </row>
     <row r="841">
@@ -9687,7 +9687,7 @@
         <v>0.3759746326568554</v>
       </c>
       <c r="C841" t="n">
-        <v>0.3966845870018005</v>
+        <v>0.3712212741374969</v>
       </c>
     </row>
     <row r="842">
@@ -9698,7 +9698,7 @@
         <v>0.3759670444125158</v>
       </c>
       <c r="C842" t="n">
-        <v>0.3973168432712555</v>
+        <v>0.3725670576095581</v>
       </c>
     </row>
     <row r="843">
@@ -9709,7 +9709,7 @@
         <v>0.3759882548133519</v>
       </c>
       <c r="C843" t="n">
-        <v>0.3975167870521545</v>
+        <v>0.3729994595050812</v>
       </c>
     </row>
     <row r="844">
@@ -9720,7 +9720,7 @@
         <v>0.3668042445830111</v>
       </c>
       <c r="C844" t="n">
-        <v>0.3936392962932587</v>
+        <v>0.3730289041996002</v>
       </c>
     </row>
     <row r="845">
@@ -9731,7 +9731,7 @@
         <v>0.3668111236193598</v>
       </c>
       <c r="C845" t="n">
-        <v>0.3912904858589172</v>
+        <v>0.3698907792568207</v>
       </c>
     </row>
     <row r="846">
@@ -9742,7 +9742,7 @@
         <v>0.3576292818410177</v>
       </c>
       <c r="C846" t="n">
-        <v>0.3868073225021362</v>
+        <v>0.3682331442832947</v>
       </c>
     </row>
     <row r="847">
@@ -9753,7 +9753,7 @@
         <v>0.3576414451467321</v>
       </c>
       <c r="C847" t="n">
-        <v>0.3840842247009277</v>
+        <v>0.364481657743454</v>
       </c>
     </row>
     <row r="848">
@@ -9764,7 +9764,7 @@
         <v>0.3484604427500522</v>
       </c>
       <c r="C848" t="n">
-        <v>0.3792262375354767</v>
+        <v>0.362239807844162</v>
       </c>
     </row>
     <row r="849">
@@ -9775,7 +9775,7 @@
         <v>0.348466487656957</v>
       </c>
       <c r="C849" t="n">
-        <v>0.3757873475551605</v>
+        <v>0.3579391539096832</v>
       </c>
     </row>
     <row r="850">
@@ -9786,7 +9786,7 @@
         <v>0.3484634334888233</v>
       </c>
       <c r="C850" t="n">
-        <v>0.3738254308700562</v>
+        <v>0.3552727103233337</v>
       </c>
     </row>
     <row r="851">
@@ -9797,7 +9797,7 @@
         <v>0.348473306115045</v>
       </c>
       <c r="C851" t="n">
-        <v>0.372378408908844</v>
+        <v>0.3537234365940094</v>
       </c>
     </row>
     <row r="852">
@@ -9808,7 +9808,7 @@
         <v>0.348464973858429</v>
       </c>
       <c r="C852" t="n">
-        <v>0.3712056875228882</v>
+        <v>0.3526100814342499</v>
       </c>
     </row>
     <row r="853">
@@ -9819,7 +9819,7 @@
         <v>0.4034734820191268</v>
       </c>
       <c r="C853" t="n">
-        <v>0.4045193791389465</v>
+        <v>0.3536033928394318</v>
       </c>
     </row>
     <row r="854">
@@ -9830,7 +9830,7 @@
         <v>0.3851419235102866</v>
       </c>
       <c r="C854" t="n">
-        <v>0.4140608012676239</v>
+        <v>0.3809876441955566</v>
       </c>
     </row>
     <row r="855">
@@ -9841,7 +9841,7 @@
         <v>0.3759639202329665</v>
       </c>
       <c r="C855" t="n">
-        <v>0.404492199420929</v>
+        <v>0.3799353837966919</v>
       </c>
     </row>
     <row r="856">
@@ -9852,7 +9852,7 @@
         <v>0.3576262636126246</v>
       </c>
       <c r="C856" t="n">
-        <v>0.3921038210391998</v>
+        <v>0.375123143196106</v>
       </c>
     </row>
     <row r="857">
@@ -9863,7 +9863,7 @@
         <v>0.3576291874333137</v>
       </c>
       <c r="C857" t="n">
-        <v>0.3865368068218231</v>
+        <v>0.3680350184440613</v>
       </c>
     </row>
     <row r="858">
@@ -9874,7 +9874,7 @@
         <v>0.3484528329591334</v>
       </c>
       <c r="C858" t="n">
-        <v>0.3822217881679535</v>
+        <v>0.3645775616168976</v>
       </c>
     </row>
     <row r="859">
@@ -9885,7 +9885,7 @@
         <v>0.3392854750786959</v>
       </c>
       <c r="C859" t="n">
-        <v>0.376532107591629</v>
+        <v>0.36027991771698</v>
       </c>
     </row>
     <row r="860">
@@ -9896,7 +9896,7 @@
         <v>0.3392852577306276</v>
       </c>
       <c r="C860" t="n">
-        <v>0.3718084692955017</v>
+        <v>0.3548871576786041</v>
       </c>
     </row>
     <row r="861">
@@ -9907,7 +9907,7 @@
         <v>0.3392809349250945</v>
       </c>
       <c r="C861" t="n">
-        <v>0.3679870069026947</v>
+        <v>0.3511872589588165</v>
       </c>
     </row>
     <row r="862">
@@ -9918,7 +9918,7 @@
         <v>0.3392794411272085</v>
       </c>
       <c r="C862" t="n">
-        <v>0.3650783896446228</v>
+        <v>0.3484443724155426</v>
       </c>
     </row>
     <row r="863">
@@ -9929,7 +9929,7 @@
         <v>0.3301179525116484</v>
       </c>
       <c r="C863" t="n">
-        <v>0.3597973585128784</v>
+        <v>0.3455207347869873</v>
       </c>
     </row>
     <row r="864">
@@ -9940,7 +9940,7 @@
         <v>0.3301014599211929</v>
       </c>
       <c r="C864" t="n">
-        <v>0.3565294444561005</v>
+        <v>0.3407515585422516</v>
       </c>
     </row>
     <row r="865">
@@ -9951,7 +9951,7 @@
         <v>0.3301075234920409</v>
       </c>
       <c r="C865" t="n">
-        <v>0.3543666005134583</v>
+        <v>0.3379402756690979</v>
       </c>
     </row>
     <row r="866">
@@ -9962,7 +9962,7 @@
         <v>0.3392960915920559</v>
       </c>
       <c r="C866" t="n">
-        <v>0.3568994402885437</v>
+        <v>0.3369012773036957</v>
       </c>
     </row>
     <row r="867">
@@ -9973,7 +9973,7 @@
         <v>0.33011060876118</v>
       </c>
       <c r="C867" t="n">
-        <v>0.3546274304389954</v>
+        <v>0.33966264128685</v>
       </c>
     </row>
     <row r="868">
@@ -9984,7 +9984,7 @@
         <v>0.3209508037130671</v>
       </c>
       <c r="C868" t="n">
-        <v>0.3491724729537964</v>
+        <v>0.3369896411895752</v>
       </c>
     </row>
     <row r="869">
@@ -9995,7 +9995,7 @@
         <v>0.3117774328034203</v>
       </c>
       <c r="C869" t="n">
-        <v>0.3431273400783539</v>
+        <v>0.3320693075656891</v>
       </c>
     </row>
     <row r="870">
@@ -10006,7 +10006,7 @@
         <v>0.330122521729644</v>
       </c>
       <c r="C870" t="n">
-        <v>0.3469797372817993</v>
+        <v>0.327204555273056</v>
       </c>
     </row>
     <row r="871">
@@ -10017,7 +10017,7 @@
         <v>0.3301174142304631</v>
       </c>
       <c r="C871" t="n">
-        <v>0.3495675921440125</v>
+        <v>0.3315861821174622</v>
       </c>
     </row>
     <row r="872">
@@ -10028,7 +10028,7 @@
         <v>0.3209584460639734</v>
       </c>
       <c r="C872" t="n">
-        <v>0.3463237881660461</v>
+        <v>0.3330382406711578</v>
       </c>
     </row>
     <row r="873">
@@ -10039,7 +10039,7 @@
         <v>0.3026146207831714</v>
       </c>
       <c r="C873" t="n">
-        <v>0.3377873301506042</v>
+        <v>0.3294614553451538</v>
       </c>
     </row>
     <row r="874">
@@ -10050,7 +10050,7 @@
         <v>0.2934321325198799</v>
       </c>
       <c r="C874" t="n">
-        <v>0.330327033996582</v>
+        <v>0.3215592801570892</v>
       </c>
     </row>
     <row r="875">
@@ -10061,7 +10061,7 @@
         <v>0.2934516215313152</v>
       </c>
       <c r="C875" t="n">
-        <v>0.3268340528011322</v>
+        <v>0.3140305876731873</v>
       </c>
     </row>
     <row r="876">
@@ -10072,7 +10072,7 @@
         <v>0.3026161102711342</v>
       </c>
       <c r="C876" t="n">
-        <v>0.3278811872005463</v>
+        <v>0.3093790113925934</v>
       </c>
     </row>
     <row r="877">
@@ -10083,7 +10083,7 @@
         <v>0.3117832677312413</v>
       </c>
       <c r="C877" t="n">
-        <v>0.3310834467411041</v>
+        <v>0.3110730648040771</v>
       </c>
     </row>
     <row r="878">
@@ -10094,7 +10094,7 @@
         <v>0.3117880665483745</v>
       </c>
       <c r="C878" t="n">
-        <v>0.331642746925354</v>
+        <v>0.3157572746276855</v>
       </c>
     </row>
     <row r="879">
@@ -10105,7 +10105,7 @@
         <v>0.3117835102860373</v>
       </c>
       <c r="C879" t="n">
-        <v>0.3314138054847717</v>
+        <v>0.3168280124664307</v>
       </c>
     </row>
     <row r="880">
@@ -10116,7 +10116,7 @@
         <v>0.3117772113340679</v>
       </c>
       <c r="C880" t="n">
-        <v>0.3316533863544464</v>
+        <v>0.3168085813522339</v>
       </c>
     </row>
     <row r="881">
@@ -10127,7 +10127,7 @@
         <v>0.3117698881898873</v>
       </c>
       <c r="C881" t="n">
-        <v>0.3322503566741943</v>
+        <v>0.3168541491031647</v>
       </c>
     </row>
     <row r="882">
@@ -10138,7 +10138,7 @@
         <v>0.3209521579093929</v>
       </c>
       <c r="C882" t="n">
-        <v>0.3363577425479889</v>
+        <v>0.3173896074295044</v>
       </c>
     </row>
     <row r="883">
@@ -10149,7 +10149,7 @@
         <v>0.3209630505313752</v>
       </c>
       <c r="C883" t="n">
-        <v>0.3387688398361206</v>
+        <v>0.3220406174659729</v>
       </c>
     </row>
     <row r="884">
@@ -10160,7 +10160,7 @@
         <v>0.3209478787503467</v>
       </c>
       <c r="C884" t="n">
-        <v>0.3396247029304504</v>
+        <v>0.3241451978683472</v>
       </c>
     </row>
     <row r="885">
@@ -10171,7 +10171,7 @@
         <v>0.3209615512928783</v>
       </c>
       <c r="C885" t="n">
-        <v>0.3402052521705627</v>
+        <v>0.3248836398124695</v>
       </c>
     </row>
     <row r="886">
@@ -10182,7 +10182,7 @@
         <v>0.311789658796864</v>
       </c>
       <c r="C886" t="n">
-        <v>0.337277352809906</v>
+        <v>0.325130432844162</v>
       </c>
     </row>
     <row r="887">
@@ -10193,7 +10193,7 @@
         <v>0.3117850702252477</v>
       </c>
       <c r="C887" t="n">
-        <v>0.3355936110019684</v>
+        <v>0.3220305442810059</v>
       </c>
     </row>
     <row r="888">
@@ -10204,7 +10204,7 @@
         <v>0.3117790275795755</v>
       </c>
       <c r="C888" t="n">
-        <v>0.3351444602012634</v>
+        <v>0.3205996751785278</v>
       </c>
     </row>
     <row r="889">
@@ -10215,7 +10215,7 @@
         <v>0.3026025442336017</v>
       </c>
       <c r="C889" t="n">
-        <v>0.3316234052181244</v>
+        <v>0.319820374250412</v>
       </c>
     </row>
     <row r="890">
@@ -10226,7 +10226,7 @@
         <v>0.3026083943281335</v>
       </c>
       <c r="C890" t="n">
-        <v>0.3292151987552643</v>
+        <v>0.3158985078334808</v>
       </c>
     </row>
     <row r="891">
@@ -10237,7 +10237,7 @@
         <v>0.3026162207951625</v>
       </c>
       <c r="C891" t="n">
-        <v>0.32799032330513</v>
+        <v>0.3134097456932068</v>
       </c>
     </row>
     <row r="892">
@@ -10248,7 +10248,7 @@
         <v>0.2842764716741114</v>
       </c>
       <c r="C892" t="n">
-        <v>0.3214467167854309</v>
+        <v>0.3114413022994995</v>
       </c>
     </row>
     <row r="893">
@@ -10259,7 +10259,7 @@
         <v>0.2751005007468232</v>
       </c>
       <c r="C893" t="n">
-        <v>0.314611405134201</v>
+        <v>0.3012979626655579</v>
       </c>
     </row>
     <row r="894">
@@ -10270,7 +10270,7 @@
         <v>0.2751029441386164</v>
       </c>
       <c r="C894" t="n">
-        <v>0.3108257055282593</v>
+        <v>0.2885872423648834</v>
       </c>
     </row>
     <row r="895">
@@ -10281,7 +10281,7 @@
         <v>0.2750974829972045</v>
       </c>
       <c r="C895" t="n">
-        <v>0.3084745109081268</v>
+        <v>0.2799194753170013</v>
       </c>
     </row>
     <row r="896">
@@ -10292,7 +10292,7 @@
         <v>0.2751004919566704</v>
       </c>
       <c r="C896" t="n">
-        <v>0.3065550923347473</v>
+        <v>0.2742136120796204</v>
       </c>
     </row>
     <row r="897">
@@ -10303,7 +10303,7 @@
         <v>0.2750911758276011</v>
       </c>
       <c r="C897" t="n">
-        <v>0.3046656250953674</v>
+        <v>0.2695570290088654</v>
       </c>
     </row>
     <row r="898">
@@ -10314,7 +10314,7 @@
         <v>0.2750869785361915</v>
       </c>
       <c r="C898" t="n">
-        <v>0.3032214641571045</v>
+        <v>0.2658968865871429</v>
       </c>
     </row>
     <row r="899">
@@ -10325,7 +10325,7 @@
         <v>0.2751080775883215</v>
       </c>
       <c r="C899" t="n">
-        <v>0.3023056983947754</v>
+        <v>0.2644602954387665</v>
       </c>
     </row>
     <row r="900">
@@ -10336,7 +10336,7 @@
         <v>0.2659256124700179</v>
       </c>
       <c r="C900" t="n">
-        <v>0.2989798188209534</v>
+        <v>0.2633624970912933</v>
       </c>
     </row>
     <row r="901">
@@ -10347,7 +10347,7 @@
         <v>0.2017604199766661</v>
       </c>
       <c r="C901" t="n">
-        <v>0.285887748003006</v>
+        <v>0.2559966444969177</v>
       </c>
     </row>
     <row r="902">
@@ -10358,7 +10358,7 @@
         <v>0.2109216344672276</v>
       </c>
       <c r="C902" t="n">
-        <v>0.2720232903957367</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="903">
@@ -10369,7 +10369,7 @@
         <v>0.2017595647209282</v>
       </c>
       <c r="C903" t="n">
-        <v>0.2596153914928436</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="904">
@@ -10380,7 +10380,7 @@
         <v>0.2017512435713646</v>
       </c>
       <c r="C904" t="n">
-        <v>0.2500987946987152</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="905">
@@ -10391,7 +10391,7 @@
         <v>0.2017573105920533</v>
       </c>
       <c r="C905" t="n">
-        <v>0.2419481128454208</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="906">
@@ -10402,7 +10402,7 @@
         <v>0.1925746283045412</v>
       </c>
       <c r="C906" t="n">
-        <v>0.2316679209470749</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="907">
@@ -10413,7 +10413,7 @@
         <v>0.1925755841347819</v>
       </c>
       <c r="C907" t="n">
-        <v>0.2224500626325607</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="908">
@@ -10424,7 +10424,7 @@
         <v>0.1834045222213773</v>
       </c>
       <c r="C908" t="n">
-        <v>0.2133124470710754</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="909">
@@ -10435,7 +10435,7 @@
         <v>0.1834013685943177</v>
       </c>
       <c r="C909" t="n">
-        <v>0.2070645093917847</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="910">
@@ -10446,7 +10446,7 @@
         <v>0.1834059202077044</v>
       </c>
       <c r="C910" t="n">
-        <v>0.1986307054758072</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="911">
@@ -10457,7 +10457,7 @@
         <v>0.1833997059886611</v>
       </c>
       <c r="C911" t="n">
-        <v>0.1915391832590103</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="912">
@@ -10468,7 +10468,7 @@
         <v>0.1833998623619084</v>
       </c>
       <c r="C912" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="913">
@@ -10479,7 +10479,7 @@
         <v>0.1834059087000809</v>
       </c>
       <c r="C913" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="914">
@@ -10490,7 +10490,7 @@
         <v>0.1742370713951397</v>
       </c>
       <c r="C914" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="915">
@@ -10501,7 +10501,7 @@
         <v>0.1742288836521927</v>
       </c>
       <c r="C915" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="916">
@@ -10512,7 +10512,7 @@
         <v>0.1742293899458707</v>
       </c>
       <c r="C916" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="917">
@@ -10523,7 +10523,7 @@
         <v>0.1375479595353376</v>
       </c>
       <c r="C917" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="918">
@@ -10534,7 +10534,7 @@
         <v>0.1742340448861577</v>
       </c>
       <c r="C918" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="919">
@@ -10545,7 +10545,7 @@
         <v>0.1742385780565905</v>
       </c>
       <c r="C919" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="920">
@@ -10556,7 +10556,7 @@
         <v>0.1742281282154673</v>
       </c>
       <c r="C920" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="921">
@@ -10567,7 +10567,7 @@
         <v>0.1742294397241594</v>
       </c>
       <c r="C921" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="922">
@@ -10578,7 +10578,7 @@
         <v>0.1742355438971977</v>
       </c>
       <c r="C922" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="923">
@@ -10589,7 +10589,7 @@
         <v>0.1742244446955363</v>
       </c>
       <c r="C923" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="924">
@@ -10600,7 +10600,7 @@
         <v>0.1834028685004656</v>
       </c>
       <c r="C924" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="925">
@@ -10611,7 +10611,7 @@
         <v>0.174227979773172</v>
       </c>
       <c r="C925" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="926">
@@ -10622,7 +10622,7 @@
         <v>0.1834059204404515</v>
       </c>
       <c r="C926" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="927">
@@ -10633,7 +10633,7 @@
         <v>0.1742219365447685</v>
       </c>
       <c r="C927" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="928">
@@ -10644,7 +10644,7 @@
         <v>0.1742294777897576</v>
       </c>
       <c r="C928" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="929">
@@ -10655,7 +10655,7 @@
         <v>0.1742386049634663</v>
       </c>
       <c r="C929" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="930">
@@ -10666,7 +10666,7 @@
         <v>0.1742371135819499</v>
       </c>
       <c r="C930" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="931">
@@ -10677,7 +10677,7 @@
         <v>0.1650667311869926</v>
       </c>
       <c r="C931" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="932">
@@ -10688,7 +10688,7 @@
         <v>0.1650629499520146</v>
       </c>
       <c r="C932" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="933">
@@ -10699,7 +10699,7 @@
         <v>0.1650591372775655</v>
       </c>
       <c r="C933" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="934">
@@ -10710,7 +10710,7 @@
         <v>0.165072823924071</v>
       </c>
       <c r="C934" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="935">
@@ -10721,7 +10721,7 @@
         <v>0.1650636598471169</v>
       </c>
       <c r="C935" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="936">
@@ -10732,7 +10732,7 @@
         <v>0.1650666436347975</v>
       </c>
       <c r="C936" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="937">
@@ -10743,7 +10743,7 @@
         <v>0.1650591259706161</v>
       </c>
       <c r="C937" t="n">
-        <v>0.1879909634590149</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
   </sheetData>
